--- a/Thresholding/Results/results_table.xlsx
+++ b/Thresholding/Results/results_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>Row</t>
   </si>
@@ -184,6 +184,177 @@
   </si>
   <si>
     <t>Var8</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>BJ_Y1</t>
+  </si>
+  <si>
+    <t>BJ_Y2</t>
+  </si>
+  <si>
+    <t>BJ_Y3</t>
+  </si>
+  <si>
+    <t>BJ_OLD_1</t>
+  </si>
+  <si>
+    <t>BJ_OLD_2</t>
+  </si>
+  <si>
+    <t>BJ_OLD_3</t>
+  </si>
+  <si>
+    <t>IMR90_Y1</t>
+  </si>
+  <si>
+    <t>IMR90_Y2</t>
+  </si>
+  <si>
+    <t>IMR90_Y3</t>
+  </si>
+  <si>
+    <t>IMR90_O1</t>
+  </si>
+  <si>
+    <t>IMR90_O2</t>
+  </si>
+  <si>
+    <t>IMR90_O3</t>
+  </si>
+  <si>
+    <t>WI_38_Y1</t>
+  </si>
+  <si>
+    <t>WI_38_Y2</t>
+  </si>
+  <si>
+    <t>WI_38_Y3</t>
+  </si>
+  <si>
+    <t>WI_38_O1</t>
+  </si>
+  <si>
+    <t>WI_38_O2</t>
+  </si>
+  <si>
+    <t>WI_38_O3</t>
+  </si>
+  <si>
+    <t>HFF_PD16_1</t>
+  </si>
+  <si>
+    <t>HFF_PD16_2</t>
+  </si>
+  <si>
+    <t>HFF_PD16_3</t>
+  </si>
+  <si>
+    <t>HFF_PD74_1</t>
+  </si>
+  <si>
+    <t>HFF_PD74_2</t>
+  </si>
+  <si>
+    <t>HFF_PD74_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_3</t>
+  </si>
+  <si>
+    <t>HFF_PD26_1</t>
+  </si>
+  <si>
+    <t>HFF_PD26_2</t>
+  </si>
+  <si>
+    <t>HFF_PD26_3</t>
+  </si>
+  <si>
+    <t>HFF_PD46_1</t>
+  </si>
+  <si>
+    <t>HFF_PD46_2</t>
+  </si>
+  <si>
+    <t>HFF_PD46_3</t>
+  </si>
+  <si>
+    <t>HFF_PD64_1</t>
+  </si>
+  <si>
+    <t>HFF_PD64_2</t>
+  </si>
+  <si>
+    <t>HFF_PD64_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_3</t>
+  </si>
+  <si>
+    <t>HK_G_acc_G</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LG</t>
+  </si>
+  <si>
+    <t>Var4</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
+  <si>
+    <t>MatchPercentage</t>
   </si>
 </sst>
 </file>
@@ -240,41 +411,41 @@
     <col min="6" max="6" width="11.7109375" customWidth="true"/>
     <col min="7" max="7" width="11.984375" customWidth="true"/>
     <col min="8" max="8" width="12.2578125" customWidth="true"/>
-    <col min="9" max="9" width="4.984375" customWidth="true"/>
+    <col min="9" max="9" width="15.62109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="B2" s="0">
         <v>52.548330404217921</v>
@@ -298,12 +469,12 @@
         <v>97.474523704031895</v>
       </c>
       <c r="I2" s="0">
-        <v>0</v>
+        <v>85.044247787610615</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="B3" s="0">
         <v>52.3725834797891</v>
@@ -327,12 +498,12 @@
         <v>99.025254762959676</v>
       </c>
       <c r="I3" s="0">
-        <v>0</v>
+        <v>85.044247787610615</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B4" s="0">
         <v>52.3725834797891</v>
@@ -356,12 +527,12 @@
         <v>97.563136907399212</v>
       </c>
       <c r="I4" s="0">
-        <v>0</v>
+        <v>85.044247787610615</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="B5" s="0">
         <v>51.845342706502642</v>
@@ -385,12 +556,12 @@
         <v>99.379707576428885</v>
       </c>
       <c r="I5" s="0">
-        <v>0</v>
+        <v>85.044247787610615</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="B6" s="0">
         <v>51.318101933216163</v>
@@ -414,12 +585,12 @@
         <v>99.202481169694295</v>
       </c>
       <c r="I6" s="0">
-        <v>0</v>
+        <v>85.044247787610615</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="B7" s="0">
         <v>51.66959578207382</v>
@@ -443,12 +614,12 @@
         <v>99.379707576428885</v>
       </c>
       <c r="I7" s="0">
-        <v>0</v>
+        <v>85.044247787610615</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="B8" s="0">
         <v>53.954305799648509</v>
@@ -472,12 +643,12 @@
         <v>98.404962339388575</v>
       </c>
       <c r="I8" s="0">
-        <v>0</v>
+        <v>85.044247787610615</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="B9" s="0">
         <v>53.251318101933222</v>
@@ -501,12 +672,12 @@
         <v>97.252990695613647</v>
       </c>
       <c r="I9" s="0">
-        <v>0</v>
+        <v>85.044247787610615</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="B10" s="0">
         <v>53.251318101933222</v>
@@ -530,12 +701,12 @@
         <v>97.6517501107665</v>
       </c>
       <c r="I10" s="0">
-        <v>0</v>
+        <v>85.044247787610615</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="B11" s="0">
         <v>53.427065026362044</v>
@@ -559,12 +730,12 @@
         <v>97.91758972086842</v>
       </c>
       <c r="I11" s="0">
-        <v>0</v>
+        <v>85.044247787610615</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="B12" s="0">
         <v>53.075571177504386</v>
@@ -588,12 +759,12 @@
         <v>97.164377492246345</v>
       </c>
       <c r="I12" s="0">
-        <v>0</v>
+        <v>85.044247787610615</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="B13" s="0">
         <v>52.899824253075565</v>
@@ -617,12 +788,12 @@
         <v>97.563136907399212</v>
       </c>
       <c r="I13" s="0">
-        <v>0</v>
+        <v>85.044247787610615</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="B14" s="0">
         <v>54.305799648506145</v>
@@ -646,12 +817,12 @@
         <v>99.113867966326978</v>
       </c>
       <c r="I14" s="0">
-        <v>0</v>
+        <v>85.044247787610615</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="B15" s="0">
         <v>54.481546572934967</v>
@@ -675,12 +846,12 @@
         <v>97.341603898980949</v>
       </c>
       <c r="I15" s="0">
-        <v>0</v>
+        <v>85.044247787610615</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="B16" s="0">
         <v>54.305799648506145</v>
@@ -704,12 +875,12 @@
         <v>99.113867966326978</v>
       </c>
       <c r="I16" s="0">
-        <v>0</v>
+        <v>85.044247787610615</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="B17" s="0">
         <v>52.724077328646743</v>
@@ -733,12 +904,12 @@
         <v>98.89233495790873</v>
       </c>
       <c r="I17" s="0">
-        <v>0</v>
+        <v>85.044247787610615</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="B18" s="0">
         <v>53.075571177504386</v>
@@ -762,12 +933,12 @@
         <v>99.335400974745241</v>
       </c>
       <c r="I18" s="0">
-        <v>0</v>
+        <v>85.044247787610615</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="B19" s="0">
         <v>52.548330404217921</v>
@@ -791,12 +962,12 @@
         <v>98.89233495790873</v>
       </c>
       <c r="I19" s="0">
-        <v>0</v>
+        <v>85.044247787610615</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="B20" s="0">
         <v>53.251318101933222</v>
@@ -820,12 +991,12 @@
         <v>99.202481169694295</v>
       </c>
       <c r="I20" s="0">
-        <v>0</v>
+        <v>85.044247787610615</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="B21" s="0">
         <v>53.075571177504386</v>
@@ -849,12 +1020,12 @@
         <v>99.246787771377925</v>
       </c>
       <c r="I21" s="0">
-        <v>0</v>
+        <v>85.044247787610615</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="B22" s="0">
         <v>53.427065026362044</v>
@@ -878,12 +1049,12 @@
         <v>99.202481169694295</v>
       </c>
       <c r="I22" s="0">
-        <v>0</v>
+        <v>85.044247787610615</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="B23" s="0">
         <v>51.142355008787341</v>
@@ -907,12 +1078,12 @@
         <v>97.91758972086842</v>
       </c>
       <c r="I23" s="0">
-        <v>0</v>
+        <v>85.044247787610615</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="B24" s="0">
         <v>50.087873462214418</v>
@@ -936,12 +1107,12 @@
         <v>98.582188746123165</v>
       </c>
       <c r="I24" s="0">
-        <v>0</v>
+        <v>85.044247787610615</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="B25" s="0">
         <v>51.142355008787341</v>
@@ -965,12 +1136,12 @@
         <v>98.626495347806824</v>
       </c>
       <c r="I25" s="0">
-        <v>0</v>
+        <v>85.044247787610615</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="B26" s="0">
         <v>52.899824253075565</v>
@@ -994,12 +1165,12 @@
         <v>98.404962339388575</v>
       </c>
       <c r="I26" s="0">
-        <v>0</v>
+        <v>85.044247787610615</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="B27" s="0">
         <v>52.724077328646743</v>
@@ -1023,12 +1194,12 @@
         <v>99.424014178112543</v>
       </c>
       <c r="I27" s="0">
-        <v>0</v>
+        <v>85.044247787610615</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="B28" s="0">
         <v>53.602811950790866</v>
@@ -1052,12 +1223,12 @@
         <v>99.512627381479845</v>
       </c>
       <c r="I28" s="0">
-        <v>0</v>
+        <v>85.044247787610615</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="B29" s="0">
         <v>54.657293497363803</v>
@@ -1081,12 +1252,12 @@
         <v>98.670801949490468</v>
       </c>
       <c r="I29" s="0">
-        <v>0</v>
+        <v>85.044247787610615</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="B30" s="0">
         <v>53.954305799648509</v>
@@ -1110,12 +1281,12 @@
         <v>99.069561364643334</v>
       </c>
       <c r="I30" s="0">
-        <v>0</v>
+        <v>85.044247787610615</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="B31" s="0">
         <v>54.657293497363803</v>
@@ -1139,12 +1310,12 @@
         <v>99.246787771377925</v>
       </c>
       <c r="I31" s="0">
-        <v>0</v>
+        <v>85.044247787610615</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="B32" s="0">
         <v>50.615114235500883</v>
@@ -1168,12 +1339,12 @@
         <v>99.291094373061583</v>
       </c>
       <c r="I32" s="0">
-        <v>0</v>
+        <v>85.044247787610615</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="B33" s="0">
         <v>51.66959578207382</v>
@@ -1197,12 +1368,12 @@
         <v>99.202481169694295</v>
       </c>
       <c r="I33" s="0">
-        <v>0</v>
+        <v>85.044247787610615</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="B34" s="0">
         <v>51.845342706502642</v>
@@ -1226,12 +1397,12 @@
         <v>99.468320779796187</v>
       </c>
       <c r="I34" s="0">
-        <v>0</v>
+        <v>85.044247787610615</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="B35" s="0">
         <v>52.196836555360285</v>
@@ -1255,12 +1426,12 @@
         <v>98.715108551174126</v>
       </c>
       <c r="I35" s="0">
-        <v>0</v>
+        <v>85.044247787610615</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="B36" s="0">
         <v>51.66959578207382</v>
@@ -1284,12 +1455,12 @@
         <v>98.582188746123165</v>
       </c>
       <c r="I36" s="0">
-        <v>0</v>
+        <v>85.044247787610615</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="B37" s="0">
         <v>56.063268892794369</v>
@@ -1313,12 +1484,12 @@
         <v>98.050509525919367</v>
       </c>
       <c r="I37" s="0">
-        <v>0</v>
+        <v>85.044247787610615</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="B38" s="0">
         <v>51.142355008787341</v>
@@ -1342,12 +1513,12 @@
         <v>98.89233495790873</v>
       </c>
       <c r="I38" s="0">
-        <v>0</v>
+        <v>85.044247787610615</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="B39" s="0">
         <v>51.845342706502642</v>
@@ -1371,12 +1542,12 @@
         <v>98.493575542755877</v>
       </c>
       <c r="I39" s="0">
-        <v>0</v>
+        <v>85.044247787610615</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="B40" s="0">
         <v>51.318101933216163</v>
@@ -1400,12 +1571,12 @@
         <v>98.936641559592374</v>
       </c>
       <c r="I40" s="0">
-        <v>0</v>
+        <v>85.044247787610615</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="B41" s="0">
         <v>52.899824253075565</v>
@@ -1429,12 +1600,12 @@
         <v>99.158174568010637</v>
       </c>
       <c r="I41" s="0">
-        <v>0</v>
+        <v>85.044247787610615</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="B42" s="0">
         <v>53.427065026362044</v>
@@ -1458,12 +1629,12 @@
         <v>99.424014178112543</v>
       </c>
       <c r="I42" s="0">
-        <v>0</v>
+        <v>85.044247787610615</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="B43" s="0">
         <v>53.954305799648509</v>
@@ -1487,12 +1658,12 @@
         <v>99.379707576428885</v>
       </c>
       <c r="I43" s="0">
-        <v>0</v>
+        <v>85.044247787610615</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="B44" s="0">
         <v>53.427065026362044</v>
@@ -1516,12 +1687,12 @@
         <v>99.113867966326978</v>
       </c>
       <c r="I44" s="0">
-        <v>0</v>
+        <v>85.044247787610615</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="B45" s="0">
         <v>52.3725834797891</v>
@@ -1545,12 +1716,12 @@
         <v>98.980948161276032</v>
       </c>
       <c r="I45" s="0">
-        <v>0</v>
+        <v>85.044247787610615</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="B46" s="0">
         <v>52.548330404217921</v>
@@ -1574,12 +1745,12 @@
         <v>99.069561364643334</v>
       </c>
       <c r="I46" s="0">
-        <v>0</v>
+        <v>85.044247787610615</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="B47" s="0">
         <v>51.845342706502642</v>
@@ -1603,12 +1774,12 @@
         <v>98.360655737704917</v>
       </c>
       <c r="I47" s="0">
-        <v>0</v>
+        <v>85.044247787610615</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="B48" s="0">
         <v>54.481546572934967</v>
@@ -1632,12 +1803,12 @@
         <v>97.696056712450158</v>
       </c>
       <c r="I48" s="0">
-        <v>0</v>
+        <v>85.044247787610615</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="B49" s="0">
         <v>53.251318101933222</v>
@@ -1661,7 +1832,7 @@
         <v>99.424014178112543</v>
       </c>
       <c r="I49" s="0">
-        <v>0</v>
+        <v>85.044247787610615</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Results/results_table.xlsx
+++ b/Thresholding/Results/results_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
   <si>
     <t>Row</t>
   </si>
@@ -355,6 +355,177 @@
   </si>
   <si>
     <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>BJ_Y1</t>
+  </si>
+  <si>
+    <t>BJ_Y2</t>
+  </si>
+  <si>
+    <t>BJ_Y3</t>
+  </si>
+  <si>
+    <t>BJ_OLD_1</t>
+  </si>
+  <si>
+    <t>BJ_OLD_2</t>
+  </si>
+  <si>
+    <t>BJ_OLD_3</t>
+  </si>
+  <si>
+    <t>IMR90_Y1</t>
+  </si>
+  <si>
+    <t>IMR90_Y2</t>
+  </si>
+  <si>
+    <t>IMR90_Y3</t>
+  </si>
+  <si>
+    <t>IMR90_O1</t>
+  </si>
+  <si>
+    <t>IMR90_O2</t>
+  </si>
+  <si>
+    <t>IMR90_O3</t>
+  </si>
+  <si>
+    <t>WI_38_Y1</t>
+  </si>
+  <si>
+    <t>WI_38_Y2</t>
+  </si>
+  <si>
+    <t>WI_38_Y3</t>
+  </si>
+  <si>
+    <t>WI_38_O1</t>
+  </si>
+  <si>
+    <t>WI_38_O2</t>
+  </si>
+  <si>
+    <t>WI_38_O3</t>
+  </si>
+  <si>
+    <t>HFF_PD16_1</t>
+  </si>
+  <si>
+    <t>HFF_PD16_2</t>
+  </si>
+  <si>
+    <t>HFF_PD16_3</t>
+  </si>
+  <si>
+    <t>HFF_PD74_1</t>
+  </si>
+  <si>
+    <t>HFF_PD74_2</t>
+  </si>
+  <si>
+    <t>HFF_PD74_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_3</t>
+  </si>
+  <si>
+    <t>HFF_PD26_1</t>
+  </si>
+  <si>
+    <t>HFF_PD26_2</t>
+  </si>
+  <si>
+    <t>HFF_PD26_3</t>
+  </si>
+  <si>
+    <t>HFF_PD46_1</t>
+  </si>
+  <si>
+    <t>HFF_PD46_2</t>
+  </si>
+  <si>
+    <t>HFF_PD46_3</t>
+  </si>
+  <si>
+    <t>HFF_PD64_1</t>
+  </si>
+  <si>
+    <t>HFF_PD64_2</t>
+  </si>
+  <si>
+    <t>HFF_PD64_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_3</t>
+  </si>
+  <si>
+    <t>HK_G_acc_G</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LG</t>
+  </si>
+  <si>
+    <t>Var4</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
   </si>
 </sst>
 </file>
@@ -411,41 +582,41 @@
     <col min="6" max="6" width="11.7109375" customWidth="true"/>
     <col min="7" max="7" width="11.984375" customWidth="true"/>
     <col min="8" max="8" width="12.2578125" customWidth="true"/>
-    <col min="9" max="9" width="15.62109375" customWidth="true"/>
+    <col min="9" max="9" width="12.34765625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>107</v>
+        <v>164</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>112</v>
+        <v>169</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>113</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="B2" s="0">
         <v>52.548330404217921</v>
@@ -474,7 +645,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="B3" s="0">
         <v>52.3725834797891</v>
@@ -503,7 +674,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="B4" s="0">
         <v>52.3725834797891</v>
@@ -532,7 +703,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="B5" s="0">
         <v>51.845342706502642</v>
@@ -561,7 +732,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="B6" s="0">
         <v>51.318101933216163</v>
@@ -590,7 +761,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="B7" s="0">
         <v>51.66959578207382</v>
@@ -619,7 +790,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="B8" s="0">
         <v>53.954305799648509</v>
@@ -648,7 +819,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="B9" s="0">
         <v>53.251318101933222</v>
@@ -677,7 +848,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="B10" s="0">
         <v>53.251318101933222</v>
@@ -706,7 +877,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="B11" s="0">
         <v>53.427065026362044</v>
@@ -735,7 +906,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="B12" s="0">
         <v>53.075571177504386</v>
@@ -764,7 +935,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="B13" s="0">
         <v>52.899824253075565</v>
@@ -793,7 +964,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="B14" s="0">
         <v>54.305799648506145</v>
@@ -822,7 +993,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="B15" s="0">
         <v>54.481546572934967</v>
@@ -851,7 +1022,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="B16" s="0">
         <v>54.305799648506145</v>
@@ -880,7 +1051,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="B17" s="0">
         <v>52.724077328646743</v>
@@ -909,7 +1080,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="B18" s="0">
         <v>53.075571177504386</v>
@@ -938,7 +1109,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="B19" s="0">
         <v>52.548330404217921</v>
@@ -967,7 +1138,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="B20" s="0">
         <v>53.251318101933222</v>
@@ -996,7 +1167,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="B21" s="0">
         <v>53.075571177504386</v>
@@ -1025,7 +1196,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="B22" s="0">
         <v>53.427065026362044</v>
@@ -1054,7 +1225,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="B23" s="0">
         <v>51.142355008787341</v>
@@ -1083,7 +1254,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="B24" s="0">
         <v>50.087873462214418</v>
@@ -1112,7 +1283,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="B25" s="0">
         <v>51.142355008787341</v>
@@ -1141,7 +1312,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="B26" s="0">
         <v>52.899824253075565</v>
@@ -1170,7 +1341,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="B27" s="0">
         <v>52.724077328646743</v>
@@ -1199,7 +1370,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="B28" s="0">
         <v>53.602811950790866</v>
@@ -1228,7 +1399,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>85</v>
+        <v>142</v>
       </c>
       <c r="B29" s="0">
         <v>54.657293497363803</v>
@@ -1257,7 +1428,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="B30" s="0">
         <v>53.954305799648509</v>
@@ -1286,7 +1457,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c r="B31" s="0">
         <v>54.657293497363803</v>
@@ -1315,7 +1486,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
       <c r="B32" s="0">
         <v>50.615114235500883</v>
@@ -1344,7 +1515,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="B33" s="0">
         <v>51.66959578207382</v>
@@ -1373,7 +1544,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="B34" s="0">
         <v>51.845342706502642</v>
@@ -1402,7 +1573,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="B35" s="0">
         <v>52.196836555360285</v>
@@ -1431,7 +1602,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>92</v>
+        <v>149</v>
       </c>
       <c r="B36" s="0">
         <v>51.66959578207382</v>
@@ -1460,7 +1631,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="B37" s="0">
         <v>56.063268892794369</v>
@@ -1489,7 +1660,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>94</v>
+        <v>151</v>
       </c>
       <c r="B38" s="0">
         <v>51.142355008787341</v>
@@ -1518,7 +1689,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="B39" s="0">
         <v>51.845342706502642</v>
@@ -1547,7 +1718,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
       <c r="B40" s="0">
         <v>51.318101933216163</v>
@@ -1576,7 +1747,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="B41" s="0">
         <v>52.899824253075565</v>
@@ -1605,7 +1776,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>98</v>
+        <v>155</v>
       </c>
       <c r="B42" s="0">
         <v>53.427065026362044</v>
@@ -1634,7 +1805,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>99</v>
+        <v>156</v>
       </c>
       <c r="B43" s="0">
         <v>53.954305799648509</v>
@@ -1663,7 +1834,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>100</v>
+        <v>157</v>
       </c>
       <c r="B44" s="0">
         <v>53.427065026362044</v>
@@ -1692,7 +1863,7 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="B45" s="0">
         <v>52.3725834797891</v>
@@ -1721,7 +1892,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>102</v>
+        <v>159</v>
       </c>
       <c r="B46" s="0">
         <v>52.548330404217921</v>
@@ -1750,7 +1921,7 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="B47" s="0">
         <v>51.845342706502642</v>
@@ -1779,7 +1950,7 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>104</v>
+        <v>161</v>
       </c>
       <c r="B48" s="0">
         <v>54.481546572934967</v>
@@ -1808,7 +1979,7 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="B49" s="0">
         <v>53.251318101933222</v>

--- a/Thresholding/Results/results_table.xlsx
+++ b/Thresholding/Results/results_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
   <si>
     <t>Row</t>
   </si>
@@ -355,6 +355,348 @@
   </si>
   <si>
     <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>BJ_Y1</t>
+  </si>
+  <si>
+    <t>BJ_Y2</t>
+  </si>
+  <si>
+    <t>BJ_Y3</t>
+  </si>
+  <si>
+    <t>BJ_OLD_1</t>
+  </si>
+  <si>
+    <t>BJ_OLD_2</t>
+  </si>
+  <si>
+    <t>BJ_OLD_3</t>
+  </si>
+  <si>
+    <t>IMR90_Y1</t>
+  </si>
+  <si>
+    <t>IMR90_Y2</t>
+  </si>
+  <si>
+    <t>IMR90_Y3</t>
+  </si>
+  <si>
+    <t>IMR90_O1</t>
+  </si>
+  <si>
+    <t>IMR90_O2</t>
+  </si>
+  <si>
+    <t>IMR90_O3</t>
+  </si>
+  <si>
+    <t>WI_38_Y1</t>
+  </si>
+  <si>
+    <t>WI_38_Y2</t>
+  </si>
+  <si>
+    <t>WI_38_Y3</t>
+  </si>
+  <si>
+    <t>WI_38_O1</t>
+  </si>
+  <si>
+    <t>WI_38_O2</t>
+  </si>
+  <si>
+    <t>WI_38_O3</t>
+  </si>
+  <si>
+    <t>HFF_PD16_1</t>
+  </si>
+  <si>
+    <t>HFF_PD16_2</t>
+  </si>
+  <si>
+    <t>HFF_PD16_3</t>
+  </si>
+  <si>
+    <t>HFF_PD74_1</t>
+  </si>
+  <si>
+    <t>HFF_PD74_2</t>
+  </si>
+  <si>
+    <t>HFF_PD74_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_3</t>
+  </si>
+  <si>
+    <t>HFF_PD26_1</t>
+  </si>
+  <si>
+    <t>HFF_PD26_2</t>
+  </si>
+  <si>
+    <t>HFF_PD26_3</t>
+  </si>
+  <si>
+    <t>HFF_PD46_1</t>
+  </si>
+  <si>
+    <t>HFF_PD46_2</t>
+  </si>
+  <si>
+    <t>HFF_PD46_3</t>
+  </si>
+  <si>
+    <t>HFF_PD64_1</t>
+  </si>
+  <si>
+    <t>HFF_PD64_2</t>
+  </si>
+  <si>
+    <t>HFF_PD64_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_3</t>
+  </si>
+  <si>
+    <t>HK_G_acc_G</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LG</t>
+  </si>
+  <si>
+    <t>Var4</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>BJ_Y1</t>
+  </si>
+  <si>
+    <t>BJ_Y2</t>
+  </si>
+  <si>
+    <t>BJ_Y3</t>
+  </si>
+  <si>
+    <t>BJ_OLD_1</t>
+  </si>
+  <si>
+    <t>BJ_OLD_2</t>
+  </si>
+  <si>
+    <t>BJ_OLD_3</t>
+  </si>
+  <si>
+    <t>IMR90_Y1</t>
+  </si>
+  <si>
+    <t>IMR90_Y2</t>
+  </si>
+  <si>
+    <t>IMR90_Y3</t>
+  </si>
+  <si>
+    <t>IMR90_O1</t>
+  </si>
+  <si>
+    <t>IMR90_O2</t>
+  </si>
+  <si>
+    <t>IMR90_O3</t>
+  </si>
+  <si>
+    <t>WI_38_Y1</t>
+  </si>
+  <si>
+    <t>WI_38_Y2</t>
+  </si>
+  <si>
+    <t>WI_38_Y3</t>
+  </si>
+  <si>
+    <t>WI_38_O1</t>
+  </si>
+  <si>
+    <t>WI_38_O2</t>
+  </si>
+  <si>
+    <t>WI_38_O3</t>
+  </si>
+  <si>
+    <t>HFF_PD16_1</t>
+  </si>
+  <si>
+    <t>HFF_PD16_2</t>
+  </si>
+  <si>
+    <t>HFF_PD16_3</t>
+  </si>
+  <si>
+    <t>HFF_PD74_1</t>
+  </si>
+  <si>
+    <t>HFF_PD74_2</t>
+  </si>
+  <si>
+    <t>HFF_PD74_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_3</t>
+  </si>
+  <si>
+    <t>HFF_PD26_1</t>
+  </si>
+  <si>
+    <t>HFF_PD26_2</t>
+  </si>
+  <si>
+    <t>HFF_PD26_3</t>
+  </si>
+  <si>
+    <t>HFF_PD46_1</t>
+  </si>
+  <si>
+    <t>HFF_PD46_2</t>
+  </si>
+  <si>
+    <t>HFF_PD46_3</t>
+  </si>
+  <si>
+    <t>HFF_PD64_1</t>
+  </si>
+  <si>
+    <t>HFF_PD64_2</t>
+  </si>
+  <si>
+    <t>HFF_PD64_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_3</t>
+  </si>
+  <si>
+    <t>HK_G_acc_G</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LG</t>
+  </si>
+  <si>
+    <t>Var4</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
   </si>
   <si>
     <t>Row</t>
@@ -587,36 +929,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>114</v>
+        <v>228</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>163</v>
+        <v>277</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>164</v>
+        <v>278</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>165</v>
+        <v>279</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>166</v>
+        <v>280</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>167</v>
+        <v>281</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>168</v>
+        <v>282</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>169</v>
+        <v>283</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>170</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>115</v>
+        <v>229</v>
       </c>
       <c r="B2" s="0">
         <v>52.548330404217921</v>
@@ -645,7 +987,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>116</v>
+        <v>230</v>
       </c>
       <c r="B3" s="0">
         <v>52.3725834797891</v>
@@ -674,7 +1016,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>117</v>
+        <v>231</v>
       </c>
       <c r="B4" s="0">
         <v>52.3725834797891</v>
@@ -703,7 +1045,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>118</v>
+        <v>232</v>
       </c>
       <c r="B5" s="0">
         <v>51.845342706502642</v>
@@ -732,7 +1074,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>119</v>
+        <v>233</v>
       </c>
       <c r="B6" s="0">
         <v>51.318101933216163</v>
@@ -761,7 +1103,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>120</v>
+        <v>234</v>
       </c>
       <c r="B7" s="0">
         <v>51.66959578207382</v>
@@ -790,7 +1132,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>121</v>
+        <v>235</v>
       </c>
       <c r="B8" s="0">
         <v>53.954305799648509</v>
@@ -819,7 +1161,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>122</v>
+        <v>236</v>
       </c>
       <c r="B9" s="0">
         <v>53.251318101933222</v>
@@ -848,7 +1190,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>123</v>
+        <v>237</v>
       </c>
       <c r="B10" s="0">
         <v>53.251318101933222</v>
@@ -877,7 +1219,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>124</v>
+        <v>238</v>
       </c>
       <c r="B11" s="0">
         <v>53.427065026362044</v>
@@ -906,7 +1248,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>125</v>
+        <v>239</v>
       </c>
       <c r="B12" s="0">
         <v>53.075571177504386</v>
@@ -935,7 +1277,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>126</v>
+        <v>240</v>
       </c>
       <c r="B13" s="0">
         <v>52.899824253075565</v>
@@ -964,7 +1306,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>127</v>
+        <v>241</v>
       </c>
       <c r="B14" s="0">
         <v>54.305799648506145</v>
@@ -993,7 +1335,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>128</v>
+        <v>242</v>
       </c>
       <c r="B15" s="0">
         <v>54.481546572934967</v>
@@ -1022,7 +1364,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>129</v>
+        <v>243</v>
       </c>
       <c r="B16" s="0">
         <v>54.305799648506145</v>
@@ -1051,7 +1393,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>130</v>
+        <v>244</v>
       </c>
       <c r="B17" s="0">
         <v>52.724077328646743</v>
@@ -1080,7 +1422,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>131</v>
+        <v>245</v>
       </c>
       <c r="B18" s="0">
         <v>53.075571177504386</v>
@@ -1109,7 +1451,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>132</v>
+        <v>246</v>
       </c>
       <c r="B19" s="0">
         <v>52.548330404217921</v>
@@ -1138,7 +1480,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>133</v>
+        <v>247</v>
       </c>
       <c r="B20" s="0">
         <v>53.251318101933222</v>
@@ -1167,7 +1509,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>134</v>
+        <v>248</v>
       </c>
       <c r="B21" s="0">
         <v>53.075571177504386</v>
@@ -1196,7 +1538,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>135</v>
+        <v>249</v>
       </c>
       <c r="B22" s="0">
         <v>53.427065026362044</v>
@@ -1225,7 +1567,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>136</v>
+        <v>250</v>
       </c>
       <c r="B23" s="0">
         <v>51.142355008787341</v>
@@ -1254,7 +1596,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>137</v>
+        <v>251</v>
       </c>
       <c r="B24" s="0">
         <v>50.087873462214418</v>
@@ -1283,7 +1625,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>138</v>
+        <v>252</v>
       </c>
       <c r="B25" s="0">
         <v>51.142355008787341</v>
@@ -1312,7 +1654,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>139</v>
+        <v>253</v>
       </c>
       <c r="B26" s="0">
         <v>52.899824253075565</v>
@@ -1341,7 +1683,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>140</v>
+        <v>254</v>
       </c>
       <c r="B27" s="0">
         <v>52.724077328646743</v>
@@ -1370,7 +1712,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>141</v>
+        <v>255</v>
       </c>
       <c r="B28" s="0">
         <v>53.602811950790866</v>
@@ -1399,7 +1741,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>142</v>
+        <v>256</v>
       </c>
       <c r="B29" s="0">
         <v>54.657293497363803</v>
@@ -1428,7 +1770,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>143</v>
+        <v>257</v>
       </c>
       <c r="B30" s="0">
         <v>53.954305799648509</v>
@@ -1457,7 +1799,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>144</v>
+        <v>258</v>
       </c>
       <c r="B31" s="0">
         <v>54.657293497363803</v>
@@ -1486,7 +1828,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>145</v>
+        <v>259</v>
       </c>
       <c r="B32" s="0">
         <v>50.615114235500883</v>
@@ -1515,7 +1857,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>146</v>
+        <v>260</v>
       </c>
       <c r="B33" s="0">
         <v>51.66959578207382</v>
@@ -1544,7 +1886,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>147</v>
+        <v>261</v>
       </c>
       <c r="B34" s="0">
         <v>51.845342706502642</v>
@@ -1573,7 +1915,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>148</v>
+        <v>262</v>
       </c>
       <c r="B35" s="0">
         <v>52.196836555360285</v>
@@ -1602,7 +1944,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>149</v>
+        <v>263</v>
       </c>
       <c r="B36" s="0">
         <v>51.66959578207382</v>
@@ -1631,7 +1973,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>150</v>
+        <v>264</v>
       </c>
       <c r="B37" s="0">
         <v>56.063268892794369</v>
@@ -1660,7 +2002,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>151</v>
+        <v>265</v>
       </c>
       <c r="B38" s="0">
         <v>51.142355008787341</v>
@@ -1689,7 +2031,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>152</v>
+        <v>266</v>
       </c>
       <c r="B39" s="0">
         <v>51.845342706502642</v>
@@ -1718,7 +2060,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>153</v>
+        <v>267</v>
       </c>
       <c r="B40" s="0">
         <v>51.318101933216163</v>
@@ -1747,7 +2089,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>154</v>
+        <v>268</v>
       </c>
       <c r="B41" s="0">
         <v>52.899824253075565</v>
@@ -1776,7 +2118,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>155</v>
+        <v>269</v>
       </c>
       <c r="B42" s="0">
         <v>53.427065026362044</v>
@@ -1805,7 +2147,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>156</v>
+        <v>270</v>
       </c>
       <c r="B43" s="0">
         <v>53.954305799648509</v>
@@ -1834,7 +2176,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>157</v>
+        <v>271</v>
       </c>
       <c r="B44" s="0">
         <v>53.427065026362044</v>
@@ -1863,7 +2205,7 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>158</v>
+        <v>272</v>
       </c>
       <c r="B45" s="0">
         <v>52.3725834797891</v>
@@ -1892,7 +2234,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>159</v>
+        <v>273</v>
       </c>
       <c r="B46" s="0">
         <v>52.548330404217921</v>
@@ -1921,7 +2263,7 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>160</v>
+        <v>274</v>
       </c>
       <c r="B47" s="0">
         <v>51.845342706502642</v>
@@ -1950,7 +2292,7 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>161</v>
+        <v>275</v>
       </c>
       <c r="B48" s="0">
         <v>54.481546572934967</v>
@@ -1979,7 +2321,7 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>162</v>
+        <v>276</v>
       </c>
       <c r="B49" s="0">
         <v>53.251318101933222</v>

--- a/Thresholding/Results/results_table.xlsx
+++ b/Thresholding/Results/results_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="458">
   <si>
     <t>Row</t>
   </si>
@@ -868,6 +868,525 @@
   </si>
   <si>
     <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>BJ_Y1</t>
+  </si>
+  <si>
+    <t>BJ_Y2</t>
+  </si>
+  <si>
+    <t>BJ_Y3</t>
+  </si>
+  <si>
+    <t>BJ_OLD_1</t>
+  </si>
+  <si>
+    <t>BJ_OLD_2</t>
+  </si>
+  <si>
+    <t>BJ_OLD_3</t>
+  </si>
+  <si>
+    <t>IMR90_Y1</t>
+  </si>
+  <si>
+    <t>IMR90_Y2</t>
+  </si>
+  <si>
+    <t>IMR90_Y3</t>
+  </si>
+  <si>
+    <t>IMR90_O1</t>
+  </si>
+  <si>
+    <t>IMR90_O2</t>
+  </si>
+  <si>
+    <t>IMR90_O3</t>
+  </si>
+  <si>
+    <t>WI_38_Y1</t>
+  </si>
+  <si>
+    <t>WI_38_Y2</t>
+  </si>
+  <si>
+    <t>WI_38_Y3</t>
+  </si>
+  <si>
+    <t>WI_38_O1</t>
+  </si>
+  <si>
+    <t>WI_38_O2</t>
+  </si>
+  <si>
+    <t>WI_38_O3</t>
+  </si>
+  <si>
+    <t>HFF_PD16_1</t>
+  </si>
+  <si>
+    <t>HFF_PD16_2</t>
+  </si>
+  <si>
+    <t>HFF_PD16_3</t>
+  </si>
+  <si>
+    <t>HFF_PD74_1</t>
+  </si>
+  <si>
+    <t>HFF_PD74_2</t>
+  </si>
+  <si>
+    <t>HFF_PD74_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_3</t>
+  </si>
+  <si>
+    <t>HFF_PD26_1</t>
+  </si>
+  <si>
+    <t>HFF_PD26_2</t>
+  </si>
+  <si>
+    <t>HFF_PD26_3</t>
+  </si>
+  <si>
+    <t>HFF_PD46_1</t>
+  </si>
+  <si>
+    <t>HFF_PD46_2</t>
+  </si>
+  <si>
+    <t>HFF_PD46_3</t>
+  </si>
+  <si>
+    <t>HFF_PD64_1</t>
+  </si>
+  <si>
+    <t>HFF_PD64_2</t>
+  </si>
+  <si>
+    <t>HFF_PD64_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_3</t>
+  </si>
+  <si>
+    <t>HK_G_acc_G</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LG</t>
+  </si>
+  <si>
+    <t>Var4</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>BJ_Y1</t>
+  </si>
+  <si>
+    <t>BJ_Y2</t>
+  </si>
+  <si>
+    <t>BJ_Y3</t>
+  </si>
+  <si>
+    <t>BJ_OLD_1</t>
+  </si>
+  <si>
+    <t>BJ_OLD_2</t>
+  </si>
+  <si>
+    <t>BJ_OLD_3</t>
+  </si>
+  <si>
+    <t>IMR90_Y1</t>
+  </si>
+  <si>
+    <t>IMR90_Y2</t>
+  </si>
+  <si>
+    <t>IMR90_Y3</t>
+  </si>
+  <si>
+    <t>IMR90_O1</t>
+  </si>
+  <si>
+    <t>IMR90_O2</t>
+  </si>
+  <si>
+    <t>IMR90_O3</t>
+  </si>
+  <si>
+    <t>WI_38_Y1</t>
+  </si>
+  <si>
+    <t>WI_38_Y2</t>
+  </si>
+  <si>
+    <t>WI_38_Y3</t>
+  </si>
+  <si>
+    <t>WI_38_O1</t>
+  </si>
+  <si>
+    <t>WI_38_O2</t>
+  </si>
+  <si>
+    <t>WI_38_O3</t>
+  </si>
+  <si>
+    <t>HFF_PD16_1</t>
+  </si>
+  <si>
+    <t>HFF_PD16_2</t>
+  </si>
+  <si>
+    <t>HFF_PD16_3</t>
+  </si>
+  <si>
+    <t>HFF_PD74_1</t>
+  </si>
+  <si>
+    <t>HFF_PD74_2</t>
+  </si>
+  <si>
+    <t>HFF_PD74_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_3</t>
+  </si>
+  <si>
+    <t>HFF_PD26_1</t>
+  </si>
+  <si>
+    <t>HFF_PD26_2</t>
+  </si>
+  <si>
+    <t>HFF_PD26_3</t>
+  </si>
+  <si>
+    <t>HFF_PD46_1</t>
+  </si>
+  <si>
+    <t>HFF_PD46_2</t>
+  </si>
+  <si>
+    <t>HFF_PD46_3</t>
+  </si>
+  <si>
+    <t>HFF_PD64_1</t>
+  </si>
+  <si>
+    <t>HFF_PD64_2</t>
+  </si>
+  <si>
+    <t>HFF_PD64_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_3</t>
+  </si>
+  <si>
+    <t>HK_G_acc_G</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LG</t>
+  </si>
+  <si>
+    <t>Var4</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>Var8</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>BJ_Y1</t>
+  </si>
+  <si>
+    <t>BJ_Y2</t>
+  </si>
+  <si>
+    <t>BJ_Y3</t>
+  </si>
+  <si>
+    <t>BJ_OLD_1</t>
+  </si>
+  <si>
+    <t>BJ_OLD_2</t>
+  </si>
+  <si>
+    <t>BJ_OLD_3</t>
+  </si>
+  <si>
+    <t>IMR90_Y1</t>
+  </si>
+  <si>
+    <t>IMR90_Y2</t>
+  </si>
+  <si>
+    <t>IMR90_Y3</t>
+  </si>
+  <si>
+    <t>IMR90_O1</t>
+  </si>
+  <si>
+    <t>IMR90_O2</t>
+  </si>
+  <si>
+    <t>IMR90_O3</t>
+  </si>
+  <si>
+    <t>WI_38_Y1</t>
+  </si>
+  <si>
+    <t>WI_38_Y2</t>
+  </si>
+  <si>
+    <t>WI_38_Y3</t>
+  </si>
+  <si>
+    <t>WI_38_O1</t>
+  </si>
+  <si>
+    <t>WI_38_O2</t>
+  </si>
+  <si>
+    <t>WI_38_O3</t>
+  </si>
+  <si>
+    <t>HFF_PD16_1</t>
+  </si>
+  <si>
+    <t>HFF_PD16_2</t>
+  </si>
+  <si>
+    <t>HFF_PD16_3</t>
+  </si>
+  <si>
+    <t>HFF_PD74_1</t>
+  </si>
+  <si>
+    <t>HFF_PD74_2</t>
+  </si>
+  <si>
+    <t>HFF_PD74_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_3</t>
+  </si>
+  <si>
+    <t>HFF_PD26_1</t>
+  </si>
+  <si>
+    <t>HFF_PD26_2</t>
+  </si>
+  <si>
+    <t>HFF_PD26_3</t>
+  </si>
+  <si>
+    <t>HFF_PD46_1</t>
+  </si>
+  <si>
+    <t>HFF_PD46_2</t>
+  </si>
+  <si>
+    <t>HFF_PD46_3</t>
+  </si>
+  <si>
+    <t>HFF_PD64_1</t>
+  </si>
+  <si>
+    <t>HFF_PD64_2</t>
+  </si>
+  <si>
+    <t>HFF_PD64_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_3</t>
+  </si>
+  <si>
+    <t>HK_G_acc_G</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LG</t>
+  </si>
+  <si>
+    <t>Var4</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>Var8</t>
   </si>
 </sst>
 </file>
@@ -913,52 +1432,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:J49"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.34765625" customWidth="true"/>
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
     <col min="3" max="3" width="12.16796875" customWidth="true"/>
     <col min="4" max="4" width="12.44140625" customWidth="true"/>
-    <col min="5" max="5" width="4.984375" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
     <col min="6" max="6" width="11.7109375" customWidth="true"/>
     <col min="7" max="7" width="11.984375" customWidth="true"/>
     <col min="8" max="8" width="12.2578125" customWidth="true"/>
     <col min="9" max="9" width="12.34765625" customWidth="true"/>
+    <col min="10" max="10" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>228</v>
+        <v>400</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>277</v>
+        <v>449</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>278</v>
+        <v>450</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>279</v>
+        <v>451</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>280</v>
+        <v>452</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>281</v>
+        <v>453</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>282</v>
+        <v>454</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>283</v>
+        <v>455</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>284</v>
+        <v>456</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>229</v>
+        <v>401</v>
       </c>
       <c r="B2" s="0">
         <v>52.548330404217921</v>
@@ -970,7 +1493,7 @@
         <v>98.945518453427056</v>
       </c>
       <c r="E2" s="0">
-        <v>0</v>
+        <v>48.578811369509047</v>
       </c>
       <c r="F2" s="0">
         <v>75.409836065573771</v>
@@ -982,12 +1505,15 @@
         <v>97.474523704031895</v>
       </c>
       <c r="I2" s="0">
-        <v>85.044247787610615</v>
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>89.601769911504419</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>230</v>
+        <v>402</v>
       </c>
       <c r="B3" s="0">
         <v>52.3725834797891</v>
@@ -999,7 +1525,7 @@
         <v>98.945518453427056</v>
       </c>
       <c r="E3" s="0">
-        <v>0</v>
+        <v>47.674418604651166</v>
       </c>
       <c r="F3" s="0">
         <v>75.188303057155508</v>
@@ -1011,12 +1537,15 @@
         <v>99.025254762959676</v>
       </c>
       <c r="I3" s="0">
-        <v>85.044247787610615</v>
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>89.026548672566378</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>231</v>
+        <v>403</v>
       </c>
       <c r="B4" s="0">
         <v>52.3725834797891</v>
@@ -1028,7 +1557,7 @@
         <v>98.594024604569412</v>
       </c>
       <c r="E4" s="0">
-        <v>0</v>
+        <v>47.932816537467701</v>
       </c>
       <c r="F4" s="0">
         <v>75.409836065573771</v>
@@ -1040,12 +1569,15 @@
         <v>97.563136907399212</v>
       </c>
       <c r="I4" s="0">
-        <v>85.044247787610615</v>
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>90</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>232</v>
+        <v>404</v>
       </c>
       <c r="B5" s="0">
         <v>51.845342706502642</v>
@@ -1057,7 +1589,7 @@
         <v>98.945518453427056</v>
       </c>
       <c r="E5" s="0">
-        <v>0</v>
+        <v>48.708010335917315</v>
       </c>
       <c r="F5" s="0">
         <v>74.479397430217091</v>
@@ -1069,12 +1601,15 @@
         <v>99.379707576428885</v>
       </c>
       <c r="I5" s="0">
-        <v>85.044247787610615</v>
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>88.451327433628322</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>233</v>
+        <v>405</v>
       </c>
       <c r="B6" s="0">
         <v>51.318101933216163</v>
@@ -1086,7 +1621,7 @@
         <v>98.769771528998234</v>
       </c>
       <c r="E6" s="0">
-        <v>0</v>
+        <v>49.741602067183457</v>
       </c>
       <c r="F6" s="0">
         <v>72.707133362871062</v>
@@ -1098,12 +1633,15 @@
         <v>99.202481169694295</v>
       </c>
       <c r="I6" s="0">
-        <v>85.044247787610615</v>
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>88.849557522123888</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>234</v>
+        <v>406</v>
       </c>
       <c r="B7" s="0">
         <v>51.66959578207382</v>
@@ -1115,7 +1653,7 @@
         <v>98.769771528998234</v>
       </c>
       <c r="E7" s="0">
-        <v>0</v>
+        <v>49.612403100775197</v>
       </c>
       <c r="F7" s="0">
         <v>74.479397430217091</v>
@@ -1127,12 +1665,15 @@
         <v>99.379707576428885</v>
       </c>
       <c r="I7" s="0">
-        <v>85.044247787610615</v>
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>88.274336283185846</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>235</v>
+        <v>407</v>
       </c>
       <c r="B8" s="0">
         <v>53.954305799648509</v>
@@ -1144,7 +1685,7 @@
         <v>98.769771528998234</v>
       </c>
       <c r="E8" s="0">
-        <v>0</v>
+        <v>48.837209302325576</v>
       </c>
       <c r="F8" s="0">
         <v>75.011076650420918</v>
@@ -1156,12 +1697,15 @@
         <v>98.404962339388575</v>
       </c>
       <c r="I8" s="0">
-        <v>85.044247787610615</v>
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>82.743362831858406</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>236</v>
+        <v>408</v>
       </c>
       <c r="B9" s="0">
         <v>53.251318101933222</v>
@@ -1173,7 +1717,7 @@
         <v>98.418277680140591</v>
       </c>
       <c r="E9" s="0">
-        <v>0</v>
+        <v>52.325581395348841</v>
       </c>
       <c r="F9" s="0">
         <v>75.321222862206469</v>
@@ -1185,12 +1729,15 @@
         <v>97.252990695613647</v>
       </c>
       <c r="I9" s="0">
-        <v>85.044247787610615</v>
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>83.318584070796462</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>237</v>
+        <v>409</v>
       </c>
       <c r="B10" s="0">
         <v>53.251318101933222</v>
@@ -1202,7 +1749,7 @@
         <v>98.769771528998234</v>
       </c>
       <c r="E10" s="0">
-        <v>0</v>
+        <v>50.129198966408275</v>
       </c>
       <c r="F10" s="0">
         <v>74.656623836951709</v>
@@ -1214,12 +1761,15 @@
         <v>97.6517501107665</v>
       </c>
       <c r="I10" s="0">
-        <v>85.044247787610615</v>
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>81.769911504424769</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>238</v>
+        <v>410</v>
       </c>
       <c r="B11" s="0">
         <v>53.427065026362044</v>
@@ -1231,7 +1781,7 @@
         <v>98.769771528998234</v>
       </c>
       <c r="E11" s="0">
-        <v>0</v>
+        <v>49.612403100775197</v>
       </c>
       <c r="F11" s="0">
         <v>74.96677004873726</v>
@@ -1243,12 +1793,15 @@
         <v>97.91758972086842</v>
       </c>
       <c r="I11" s="0">
-        <v>85.044247787610615</v>
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>82.30088495575221</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>239</v>
+        <v>411</v>
       </c>
       <c r="B12" s="0">
         <v>53.075571177504386</v>
@@ -1260,7 +1813,7 @@
         <v>98.242530755711783</v>
       </c>
       <c r="E12" s="0">
-        <v>0</v>
+        <v>47.803617571059434</v>
       </c>
       <c r="F12" s="0">
         <v>75.631369073992033</v>
@@ -1272,12 +1825,15 @@
         <v>97.164377492246345</v>
       </c>
       <c r="I12" s="0">
-        <v>85.044247787610615</v>
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>80.04424778761063</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>240</v>
+        <v>412</v>
       </c>
       <c r="B13" s="0">
         <v>52.899824253075565</v>
@@ -1289,7 +1845,7 @@
         <v>98.769771528998234</v>
       </c>
       <c r="E13" s="0">
-        <v>0</v>
+        <v>49.870801033591732</v>
       </c>
       <c r="F13" s="0">
         <v>78.378378378378372</v>
@@ -1301,12 +1857,15 @@
         <v>97.563136907399212</v>
       </c>
       <c r="I13" s="0">
-        <v>85.044247787610615</v>
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>81.946902654867259</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>241</v>
+        <v>413</v>
       </c>
       <c r="B14" s="0">
         <v>54.305799648506145</v>
@@ -1318,7 +1877,7 @@
         <v>98.945518453427056</v>
       </c>
       <c r="E14" s="0">
-        <v>0</v>
+        <v>51.291989664082685</v>
       </c>
       <c r="F14" s="0">
         <v>74.302171023482501</v>
@@ -1330,12 +1889,15 @@
         <v>99.113867966326978</v>
       </c>
       <c r="I14" s="0">
-        <v>85.044247787610615</v>
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>82.079646017699119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>242</v>
+        <v>414</v>
       </c>
       <c r="B15" s="0">
         <v>54.481546572934967</v>
@@ -1347,7 +1909,7 @@
         <v>98.594024604569412</v>
       </c>
       <c r="E15" s="0">
-        <v>0</v>
+        <v>51.162790697674424</v>
       </c>
       <c r="F15" s="0">
         <v>75.409836065573771</v>
@@ -1359,12 +1921,15 @@
         <v>97.341603898980949</v>
       </c>
       <c r="I15" s="0">
-        <v>85.044247787610615</v>
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>81.106194690265482</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>243</v>
+        <v>415</v>
       </c>
       <c r="B16" s="0">
         <v>54.305799648506145</v>
@@ -1376,7 +1941,7 @@
         <v>98.945518453427056</v>
       </c>
       <c r="E16" s="0">
-        <v>0</v>
+        <v>51.162790697674424</v>
       </c>
       <c r="F16" s="0">
         <v>74.257864421798843</v>
@@ -1388,12 +1953,15 @@
         <v>99.113867966326978</v>
       </c>
       <c r="I16" s="0">
-        <v>85.044247787610615</v>
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>81.504424778761063</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>244</v>
+        <v>416</v>
       </c>
       <c r="B17" s="0">
         <v>52.724077328646743</v>
@@ -1405,7 +1973,7 @@
         <v>98.945518453427056</v>
       </c>
       <c r="E17" s="0">
-        <v>0</v>
+        <v>49.224806201550386</v>
       </c>
       <c r="F17" s="0">
         <v>76.295968099246792</v>
@@ -1417,12 +1985,15 @@
         <v>98.89233495790873</v>
       </c>
       <c r="I17" s="0">
-        <v>85.044247787610615</v>
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>91.637168141592923</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>245</v>
+        <v>417</v>
       </c>
       <c r="B18" s="0">
         <v>53.075571177504386</v>
@@ -1434,7 +2005,7 @@
         <v>98.945518453427056</v>
       </c>
       <c r="E18" s="0">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F18" s="0">
         <v>77.802392556490915</v>
@@ -1446,12 +2017,15 @@
         <v>99.335400974745241</v>
       </c>
       <c r="I18" s="0">
-        <v>85.044247787610615</v>
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>92.16814159292035</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>246</v>
+        <v>418</v>
       </c>
       <c r="B19" s="0">
         <v>52.548330404217921</v>
@@ -1463,7 +2037,7 @@
         <v>98.945518453427056</v>
       </c>
       <c r="E19" s="0">
-        <v>0</v>
+        <v>51.550387596899228</v>
       </c>
       <c r="F19" s="0">
         <v>77.447939743021706</v>
@@ -1475,12 +2049,15 @@
         <v>98.89233495790873</v>
       </c>
       <c r="I19" s="0">
-        <v>85.044247787610615</v>
+        <v>0</v>
+      </c>
+      <c r="J19" s="0">
+        <v>94.646017699115049</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>247</v>
+        <v>419</v>
       </c>
       <c r="B20" s="0">
         <v>53.251318101933222</v>
@@ -1492,7 +2069,7 @@
         <v>98.594024604569412</v>
       </c>
       <c r="E20" s="0">
-        <v>0</v>
+        <v>54.00516795865633</v>
       </c>
       <c r="F20" s="0">
         <v>76.561807709348699</v>
@@ -1504,12 +2081,15 @@
         <v>99.202481169694295</v>
       </c>
       <c r="I20" s="0">
-        <v>85.044247787610615</v>
+        <v>0</v>
+      </c>
+      <c r="J20" s="0">
+        <v>88.495575221238937</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>248</v>
+        <v>420</v>
       </c>
       <c r="B21" s="0">
         <v>53.075571177504386</v>
@@ -1521,7 +2101,7 @@
         <v>98.594024604569412</v>
       </c>
       <c r="E21" s="0">
-        <v>0</v>
+        <v>53.746770025839794</v>
       </c>
       <c r="F21" s="0">
         <v>76.473194505981397</v>
@@ -1533,12 +2113,15 @@
         <v>99.246787771377925</v>
       </c>
       <c r="I21" s="0">
-        <v>85.044247787610615</v>
+        <v>0</v>
+      </c>
+      <c r="J21" s="0">
+        <v>88.495575221238937</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>249</v>
+        <v>421</v>
       </c>
       <c r="B22" s="0">
         <v>53.427065026362044</v>
@@ -1550,7 +2133,7 @@
         <v>98.594024604569412</v>
       </c>
       <c r="E22" s="0">
-        <v>0</v>
+        <v>49.741602067183457</v>
       </c>
       <c r="F22" s="0">
         <v>76.517501107665041</v>
@@ -1562,12 +2145,15 @@
         <v>99.202481169694295</v>
       </c>
       <c r="I22" s="0">
-        <v>85.044247787610615</v>
+        <v>0</v>
+      </c>
+      <c r="J22" s="0">
+        <v>89.159292035398224</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>250</v>
+        <v>422</v>
       </c>
       <c r="B23" s="0">
         <v>51.142355008787341</v>
@@ -1579,7 +2165,7 @@
         <v>98.418277680140591</v>
       </c>
       <c r="E23" s="0">
-        <v>0</v>
+        <v>43.281653746770026</v>
       </c>
       <c r="F23" s="0">
         <v>76.473194505981397</v>
@@ -1591,12 +2177,15 @@
         <v>97.91758972086842</v>
       </c>
       <c r="I23" s="0">
-        <v>85.044247787610615</v>
+        <v>0</v>
+      </c>
+      <c r="J23" s="0">
+        <v>87.787610619469021</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>251</v>
+        <v>423</v>
       </c>
       <c r="B24" s="0">
         <v>50.087873462214418</v>
@@ -1608,7 +2197,7 @@
         <v>98.594024604569412</v>
       </c>
       <c r="E24" s="0">
-        <v>0</v>
+        <v>40.439276485788113</v>
       </c>
       <c r="F24" s="0">
         <v>77.226406734603458</v>
@@ -1620,12 +2209,15 @@
         <v>98.582188746123165</v>
       </c>
       <c r="I24" s="0">
-        <v>85.044247787610615</v>
+        <v>0</v>
+      </c>
+      <c r="J24" s="0">
+        <v>87.920353982300881</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>252</v>
+        <v>424</v>
       </c>
       <c r="B25" s="0">
         <v>51.142355008787341</v>
@@ -1637,7 +2229,7 @@
         <v>98.066783831282962</v>
       </c>
       <c r="E25" s="0">
-        <v>0</v>
+        <v>40.310077519379846</v>
       </c>
       <c r="F25" s="0">
         <v>76.871953921134249</v>
@@ -1649,12 +2241,15 @@
         <v>98.626495347806824</v>
       </c>
       <c r="I25" s="0">
-        <v>85.044247787610615</v>
+        <v>0</v>
+      </c>
+      <c r="J25" s="0">
+        <v>88.185840707964601</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>253</v>
+        <v>425</v>
       </c>
       <c r="B26" s="0">
         <v>52.899824253075565</v>
@@ -1666,7 +2261,7 @@
         <v>100</v>
       </c>
       <c r="E26" s="0">
-        <v>0</v>
+        <v>56.201550387596896</v>
       </c>
       <c r="F26" s="0">
         <v>75.011076650420918</v>
@@ -1678,12 +2273,15 @@
         <v>98.404962339388575</v>
       </c>
       <c r="I26" s="0">
-        <v>85.044247787610615</v>
+        <v>0</v>
+      </c>
+      <c r="J26" s="0">
+        <v>85.088495575221231</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>254</v>
+        <v>426</v>
       </c>
       <c r="B27" s="0">
         <v>52.724077328646743</v>
@@ -1695,7 +2293,7 @@
         <v>98.945518453427056</v>
       </c>
       <c r="E27" s="0">
-        <v>0</v>
+        <v>49.741602067183457</v>
       </c>
       <c r="F27" s="0">
         <v>75.631369073992033</v>
@@ -1707,12 +2305,15 @@
         <v>99.424014178112543</v>
       </c>
       <c r="I27" s="0">
-        <v>85.044247787610615</v>
+        <v>0</v>
+      </c>
+      <c r="J27" s="0">
+        <v>83.141592920353986</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>255</v>
+        <v>427</v>
       </c>
       <c r="B28" s="0">
         <v>53.602811950790866</v>
@@ -1724,7 +2325,7 @@
         <v>100</v>
       </c>
       <c r="E28" s="0">
-        <v>0</v>
+        <v>55.813953488372093</v>
       </c>
       <c r="F28" s="0">
         <v>75.099689853788206</v>
@@ -1736,12 +2337,15 @@
         <v>99.512627381479845</v>
       </c>
       <c r="I28" s="0">
-        <v>85.044247787610615</v>
+        <v>0</v>
+      </c>
+      <c r="J28" s="0">
+        <v>85.575221238938042</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>256</v>
+        <v>428</v>
       </c>
       <c r="B29" s="0">
         <v>54.657293497363803</v>
@@ -1753,7 +2357,7 @@
         <v>98.418277680140591</v>
       </c>
       <c r="E29" s="0">
-        <v>0</v>
+        <v>47.674418604651166</v>
       </c>
       <c r="F29" s="0">
         <v>82.188746123172351</v>
@@ -1765,12 +2369,15 @@
         <v>98.670801949490468</v>
       </c>
       <c r="I29" s="0">
-        <v>85.044247787610615</v>
+        <v>0</v>
+      </c>
+      <c r="J29" s="0">
+        <v>84.778761061946909</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>257</v>
+        <v>429</v>
       </c>
       <c r="B30" s="0">
         <v>53.954305799648509</v>
@@ -1782,7 +2389,7 @@
         <v>98.594024604569412</v>
       </c>
       <c r="E30" s="0">
-        <v>0</v>
+        <v>47.803617571059434</v>
       </c>
       <c r="F30" s="0">
         <v>81.834293309703142</v>
@@ -1794,12 +2401,15 @@
         <v>99.069561364643334</v>
       </c>
       <c r="I30" s="0">
-        <v>85.044247787610615</v>
+        <v>0</v>
+      </c>
+      <c r="J30" s="0">
+        <v>80</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>258</v>
+        <v>430</v>
       </c>
       <c r="B31" s="0">
         <v>54.657293497363803</v>
@@ -1811,7 +2421,7 @@
         <v>98.945518453427056</v>
       </c>
       <c r="E31" s="0">
-        <v>0</v>
+        <v>49.224806201550386</v>
       </c>
       <c r="F31" s="0">
         <v>78.821444395214897</v>
@@ -1823,12 +2433,15 @@
         <v>99.246787771377925</v>
       </c>
       <c r="I31" s="0">
-        <v>85.044247787610615</v>
+        <v>0</v>
+      </c>
+      <c r="J31" s="0">
+        <v>92.30088495575221</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>259</v>
+        <v>431</v>
       </c>
       <c r="B32" s="0">
         <v>50.615114235500883</v>
@@ -1840,7 +2453,7 @@
         <v>98.769771528998234</v>
       </c>
       <c r="E32" s="0">
-        <v>0</v>
+        <v>45.60723514211886</v>
       </c>
       <c r="F32" s="0">
         <v>75.321222862206469</v>
@@ -1852,12 +2465,15 @@
         <v>99.291094373061583</v>
       </c>
       <c r="I32" s="0">
-        <v>85.044247787610615</v>
+        <v>0</v>
+      </c>
+      <c r="J32" s="0">
+        <v>89.911504424778769</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>260</v>
+        <v>432</v>
       </c>
       <c r="B33" s="0">
         <v>51.66959578207382</v>
@@ -1869,7 +2485,7 @@
         <v>98.945518453427056</v>
       </c>
       <c r="E33" s="0">
-        <v>0</v>
+        <v>45.865633074935403</v>
       </c>
       <c r="F33" s="0">
         <v>75.232609658839166</v>
@@ -1881,12 +2497,15 @@
         <v>99.202481169694295</v>
       </c>
       <c r="I33" s="0">
-        <v>85.044247787610615</v>
+        <v>0</v>
+      </c>
+      <c r="J33" s="0">
+        <v>88.495575221238937</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>261</v>
+        <v>433</v>
       </c>
       <c r="B34" s="0">
         <v>51.845342706502642</v>
@@ -1898,7 +2517,7 @@
         <v>98.945518453427056</v>
       </c>
       <c r="E34" s="0">
-        <v>0</v>
+        <v>46.253229974160206</v>
       </c>
       <c r="F34" s="0">
         <v>75.365529463890127</v>
@@ -1910,12 +2529,15 @@
         <v>99.468320779796187</v>
       </c>
       <c r="I34" s="0">
-        <v>85.044247787610615</v>
+        <v>0</v>
+      </c>
+      <c r="J34" s="0">
+        <v>89.601769911504419</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>262</v>
+        <v>434</v>
       </c>
       <c r="B35" s="0">
         <v>52.196836555360285</v>
@@ -1927,7 +2549,7 @@
         <v>99.121265377855877</v>
       </c>
       <c r="E35" s="0">
-        <v>0</v>
+        <v>41.731266149870798</v>
       </c>
       <c r="F35" s="0">
         <v>77.1821001329198</v>
@@ -1939,12 +2561,15 @@
         <v>98.715108551174126</v>
       </c>
       <c r="I35" s="0">
-        <v>85.044247787610615</v>
+        <v>0</v>
+      </c>
+      <c r="J35" s="0">
+        <v>91.327433628318587</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>263</v>
+        <v>435</v>
       </c>
       <c r="B36" s="0">
         <v>51.66959578207382</v>
@@ -1956,7 +2581,7 @@
         <v>97.89103690685414</v>
       </c>
       <c r="E36" s="0">
-        <v>0</v>
+        <v>41.343669250645995</v>
       </c>
       <c r="F36" s="0">
         <v>77.891005759858217</v>
@@ -1968,12 +2593,15 @@
         <v>98.582188746123165</v>
       </c>
       <c r="I36" s="0">
-        <v>85.044247787610615</v>
+        <v>0</v>
+      </c>
+      <c r="J36" s="0">
+        <v>89.380530973451329</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>264</v>
+        <v>436</v>
       </c>
       <c r="B37" s="0">
         <v>56.063268892794369</v>
@@ -1985,7 +2613,7 @@
         <v>97.539543057996482</v>
       </c>
       <c r="E37" s="0">
-        <v>0</v>
+        <v>48.708010335917315</v>
       </c>
       <c r="F37" s="0">
         <v>80.416482055826322</v>
@@ -1997,12 +2625,15 @@
         <v>98.050509525919367</v>
       </c>
       <c r="I37" s="0">
-        <v>85.044247787610615</v>
+        <v>0</v>
+      </c>
+      <c r="J37" s="0">
+        <v>90.530973451327441</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>265</v>
+        <v>437</v>
       </c>
       <c r="B38" s="0">
         <v>51.142355008787341</v>
@@ -2014,7 +2645,7 @@
         <v>98.418277680140591</v>
       </c>
       <c r="E38" s="0">
-        <v>0</v>
+        <v>38.63049095607235</v>
       </c>
       <c r="F38" s="0">
         <v>77.1821001329198</v>
@@ -2026,12 +2657,15 @@
         <v>98.89233495790873</v>
       </c>
       <c r="I38" s="0">
-        <v>85.044247787610615</v>
+        <v>0</v>
+      </c>
+      <c r="J38" s="0">
+        <v>86.061946902654867</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>266</v>
+        <v>438</v>
       </c>
       <c r="B39" s="0">
         <v>51.845342706502642</v>
@@ -2043,7 +2677,7 @@
         <v>99.648506151142357</v>
       </c>
       <c r="E39" s="0">
-        <v>0</v>
+        <v>39.793281653746767</v>
       </c>
       <c r="F39" s="0">
         <v>76.739034116083289</v>
@@ -2055,12 +2689,15 @@
         <v>98.493575542755877</v>
       </c>
       <c r="I39" s="0">
-        <v>85.044247787610615</v>
+        <v>0</v>
+      </c>
+      <c r="J39" s="0">
+        <v>87.964601769911496</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>267</v>
+        <v>439</v>
       </c>
       <c r="B40" s="0">
         <v>51.318101933216163</v>
@@ -2072,7 +2709,7 @@
         <v>99.824253075571178</v>
       </c>
       <c r="E40" s="0">
-        <v>0</v>
+        <v>41.214470284237727</v>
       </c>
       <c r="F40" s="0">
         <v>77.580859548072667</v>
@@ -2084,12 +2721,15 @@
         <v>98.936641559592374</v>
       </c>
       <c r="I40" s="0">
-        <v>85.044247787610615</v>
+        <v>0</v>
+      </c>
+      <c r="J40" s="0">
+        <v>86.371681415929203</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>268</v>
+        <v>440</v>
       </c>
       <c r="B41" s="0">
         <v>52.899824253075565</v>
@@ -2101,7 +2741,7 @@
         <v>98.945518453427056</v>
       </c>
       <c r="E41" s="0">
-        <v>0</v>
+        <v>53.229974160206716</v>
       </c>
       <c r="F41" s="0">
         <v>75.631369073992033</v>
@@ -2113,12 +2753,15 @@
         <v>99.158174568010637</v>
       </c>
       <c r="I41" s="0">
-        <v>85.044247787610615</v>
+        <v>0</v>
+      </c>
+      <c r="J41" s="0">
+        <v>83.230088495575217</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>269</v>
+        <v>441</v>
       </c>
       <c r="B42" s="0">
         <v>53.427065026362044</v>
@@ -2130,7 +2773,7 @@
         <v>98.769771528998234</v>
       </c>
       <c r="E42" s="0">
-        <v>0</v>
+        <v>49.612403100775197</v>
       </c>
       <c r="F42" s="0">
         <v>75.454142667257415</v>
@@ -2142,12 +2785,15 @@
         <v>99.424014178112543</v>
       </c>
       <c r="I42" s="0">
-        <v>85.044247787610615</v>
+        <v>0</v>
+      </c>
+      <c r="J42" s="0">
+        <v>84.292035398230098</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>270</v>
+        <v>442</v>
       </c>
       <c r="B43" s="0">
         <v>53.954305799648509</v>
@@ -2159,7 +2805,7 @@
         <v>98.769771528998234</v>
       </c>
       <c r="E43" s="0">
-        <v>0</v>
+        <v>50.904392764857889</v>
       </c>
       <c r="F43" s="0">
         <v>75.897208684093926</v>
@@ -2171,12 +2817,15 @@
         <v>99.379707576428885</v>
       </c>
       <c r="I43" s="0">
-        <v>85.044247787610615</v>
+        <v>0</v>
+      </c>
+      <c r="J43" s="0">
+        <v>85</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>271</v>
+        <v>443</v>
       </c>
       <c r="B44" s="0">
         <v>53.427065026362044</v>
@@ -2188,7 +2837,7 @@
         <v>98.769771528998234</v>
       </c>
       <c r="E44" s="0">
-        <v>0</v>
+        <v>52.583979328165377</v>
       </c>
       <c r="F44" s="0">
         <v>75.631369073992033</v>
@@ -2200,12 +2849,15 @@
         <v>99.113867966326978</v>
       </c>
       <c r="I44" s="0">
-        <v>85.044247787610615</v>
+        <v>0</v>
+      </c>
+      <c r="J44" s="0">
+        <v>82.079646017699119</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>272</v>
+        <v>444</v>
       </c>
       <c r="B45" s="0">
         <v>52.3725834797891</v>
@@ -2217,7 +2869,7 @@
         <v>98.945518453427056</v>
       </c>
       <c r="E45" s="0">
-        <v>0</v>
+        <v>47.545219638242891</v>
       </c>
       <c r="F45" s="0">
         <v>75.276916260522825</v>
@@ -2229,12 +2881,15 @@
         <v>98.980948161276032</v>
       </c>
       <c r="I45" s="0">
-        <v>85.044247787610615</v>
+        <v>0</v>
+      </c>
+      <c r="J45" s="0">
+        <v>88.893805309734503</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>273</v>
+        <v>445</v>
       </c>
       <c r="B46" s="0">
         <v>52.548330404217921</v>
@@ -2246,7 +2901,7 @@
         <v>98.769771528998234</v>
       </c>
       <c r="E46" s="0">
-        <v>0</v>
+        <v>47.803617571059434</v>
       </c>
       <c r="F46" s="0">
         <v>75.365529463890127</v>
@@ -2258,12 +2913,15 @@
         <v>99.069561364643334</v>
       </c>
       <c r="I46" s="0">
-        <v>85.044247787610615</v>
+        <v>0</v>
+      </c>
+      <c r="J46" s="0">
+        <v>85.707964601769916</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>274</v>
+        <v>446</v>
       </c>
       <c r="B47" s="0">
         <v>51.845342706502642</v>
@@ -2275,7 +2933,7 @@
         <v>98.945518453427056</v>
       </c>
       <c r="E47" s="0">
-        <v>0</v>
+        <v>48.320413436692505</v>
       </c>
       <c r="F47" s="0">
         <v>74.124944616747896</v>
@@ -2287,12 +2945,15 @@
         <v>98.360655737704917</v>
       </c>
       <c r="I47" s="0">
-        <v>85.044247787610615</v>
+        <v>0</v>
+      </c>
+      <c r="J47" s="0">
+        <v>90</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>275</v>
+        <v>447</v>
       </c>
       <c r="B48" s="0">
         <v>54.481546572934967</v>
@@ -2304,7 +2965,7 @@
         <v>98.769771528998234</v>
       </c>
       <c r="E48" s="0">
-        <v>0</v>
+        <v>57.881136950904391</v>
       </c>
       <c r="F48" s="0">
         <v>73.238812583074875</v>
@@ -2316,12 +2977,15 @@
         <v>97.696056712450158</v>
       </c>
       <c r="I48" s="0">
-        <v>85.044247787610615</v>
+        <v>0</v>
+      </c>
+      <c r="J48" s="0">
+        <v>82.964601769911511</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>276</v>
+        <v>448</v>
       </c>
       <c r="B49" s="0">
         <v>53.251318101933222</v>
@@ -2333,7 +2997,7 @@
         <v>98.945518453427056</v>
       </c>
       <c r="E49" s="0">
-        <v>0</v>
+        <v>50.129198966408275</v>
       </c>
       <c r="F49" s="0">
         <v>75.675675675675677</v>
@@ -2345,7 +3009,10 @@
         <v>99.424014178112543</v>
       </c>
       <c r="I49" s="0">
-        <v>85.044247787610615</v>
+        <v>0</v>
+      </c>
+      <c r="J49" s="0">
+        <v>90.265486725663706</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Results/results_table.xlsx
+++ b/Thresholding/Results/results_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Row</t>
   </si>
@@ -171,7 +171,7 @@
     <t>HK_G_acc_LG</t>
   </si>
   <si>
-    <t>Var4</t>
+    <t>HK_G_acc_SD</t>
   </si>
   <si>
     <t>HK_R_acc_G</t>
@@ -183,1210 +183,7 @@
     <t>HK_R_acc_LG</t>
   </si>
   <si>
-    <t>Var8</t>
-  </si>
-  <si>
-    <t>Row</t>
-  </si>
-  <si>
-    <t>BJ_Y1</t>
-  </si>
-  <si>
-    <t>BJ_Y2</t>
-  </si>
-  <si>
-    <t>BJ_Y3</t>
-  </si>
-  <si>
-    <t>BJ_OLD_1</t>
-  </si>
-  <si>
-    <t>BJ_OLD_2</t>
-  </si>
-  <si>
-    <t>BJ_OLD_3</t>
-  </si>
-  <si>
-    <t>IMR90_Y1</t>
-  </si>
-  <si>
-    <t>IMR90_Y2</t>
-  </si>
-  <si>
-    <t>IMR90_Y3</t>
-  </si>
-  <si>
-    <t>IMR90_O1</t>
-  </si>
-  <si>
-    <t>IMR90_O2</t>
-  </si>
-  <si>
-    <t>IMR90_O3</t>
-  </si>
-  <si>
-    <t>WI_38_Y1</t>
-  </si>
-  <si>
-    <t>WI_38_Y2</t>
-  </si>
-  <si>
-    <t>WI_38_Y3</t>
-  </si>
-  <si>
-    <t>WI_38_O1</t>
-  </si>
-  <si>
-    <t>WI_38_O2</t>
-  </si>
-  <si>
-    <t>WI_38_O3</t>
-  </si>
-  <si>
-    <t>HFF_PD16_1</t>
-  </si>
-  <si>
-    <t>HFF_PD16_2</t>
-  </si>
-  <si>
-    <t>HFF_PD16_3</t>
-  </si>
-  <si>
-    <t>HFF_PD74_1</t>
-  </si>
-  <si>
-    <t>HFF_PD74_2</t>
-  </si>
-  <si>
-    <t>HFF_PD74_3</t>
-  </si>
-  <si>
-    <t>MRC_5_PD32_1</t>
-  </si>
-  <si>
-    <t>MRC_5_PD32_2</t>
-  </si>
-  <si>
-    <t>MRC_5_PD32_3</t>
-  </si>
-  <si>
-    <t>MRC_5_PD72_1</t>
-  </si>
-  <si>
-    <t>MRC_5_PD72_2</t>
-  </si>
-  <si>
-    <t>MRC_5_PD72_3</t>
-  </si>
-  <si>
-    <t>HFF_PD26_1</t>
-  </si>
-  <si>
-    <t>HFF_PD26_2</t>
-  </si>
-  <si>
-    <t>HFF_PD26_3</t>
-  </si>
-  <si>
-    <t>HFF_PD46_1</t>
-  </si>
-  <si>
-    <t>HFF_PD46_2</t>
-  </si>
-  <si>
-    <t>HFF_PD46_3</t>
-  </si>
-  <si>
-    <t>HFF_PD64_1</t>
-  </si>
-  <si>
-    <t>HFF_PD64_2</t>
-  </si>
-  <si>
-    <t>HFF_PD64_3</t>
-  </si>
-  <si>
-    <t>MRC_5_PD42_1</t>
-  </si>
-  <si>
-    <t>MRC_5_PD42_2</t>
-  </si>
-  <si>
-    <t>MRC_5_PD42_3</t>
-  </si>
-  <si>
-    <t>MRC_5_PD52_1</t>
-  </si>
-  <si>
-    <t>MRC_5_PD52_2</t>
-  </si>
-  <si>
-    <t>MRC_5_PD52_3</t>
-  </si>
-  <si>
-    <t>MRC_5_PD62_1</t>
-  </si>
-  <si>
-    <t>MRC_5_PD62_2</t>
-  </si>
-  <si>
-    <t>MRC_5_PD62_3</t>
-  </si>
-  <si>
-    <t>HK_G_acc_G</t>
-  </si>
-  <si>
-    <t>HK_G_acc_LT</t>
-  </si>
-  <si>
-    <t>HK_G_acc_LG</t>
-  </si>
-  <si>
-    <t>Var4</t>
-  </si>
-  <si>
-    <t>HK_R_acc_G</t>
-  </si>
-  <si>
-    <t>HK_R_acc_LT</t>
-  </si>
-  <si>
-    <t>HK_R_acc_LG</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>Row</t>
-  </si>
-  <si>
-    <t>BJ_Y1</t>
-  </si>
-  <si>
-    <t>BJ_Y2</t>
-  </si>
-  <si>
-    <t>BJ_Y3</t>
-  </si>
-  <si>
-    <t>BJ_OLD_1</t>
-  </si>
-  <si>
-    <t>BJ_OLD_2</t>
-  </si>
-  <si>
-    <t>BJ_OLD_3</t>
-  </si>
-  <si>
-    <t>IMR90_Y1</t>
-  </si>
-  <si>
-    <t>IMR90_Y2</t>
-  </si>
-  <si>
-    <t>IMR90_Y3</t>
-  </si>
-  <si>
-    <t>IMR90_O1</t>
-  </si>
-  <si>
-    <t>IMR90_O2</t>
-  </si>
-  <si>
-    <t>IMR90_O3</t>
-  </si>
-  <si>
-    <t>WI_38_Y1</t>
-  </si>
-  <si>
-    <t>WI_38_Y2</t>
-  </si>
-  <si>
-    <t>WI_38_Y3</t>
-  </si>
-  <si>
-    <t>WI_38_O1</t>
-  </si>
-  <si>
-    <t>WI_38_O2</t>
-  </si>
-  <si>
-    <t>WI_38_O3</t>
-  </si>
-  <si>
-    <t>HFF_PD16_1</t>
-  </si>
-  <si>
-    <t>HFF_PD16_2</t>
-  </si>
-  <si>
-    <t>HFF_PD16_3</t>
-  </si>
-  <si>
-    <t>HFF_PD74_1</t>
-  </si>
-  <si>
-    <t>HFF_PD74_2</t>
-  </si>
-  <si>
-    <t>HFF_PD74_3</t>
-  </si>
-  <si>
-    <t>MRC_5_PD32_1</t>
-  </si>
-  <si>
-    <t>MRC_5_PD32_2</t>
-  </si>
-  <si>
-    <t>MRC_5_PD32_3</t>
-  </si>
-  <si>
-    <t>MRC_5_PD72_1</t>
-  </si>
-  <si>
-    <t>MRC_5_PD72_2</t>
-  </si>
-  <si>
-    <t>MRC_5_PD72_3</t>
-  </si>
-  <si>
-    <t>HFF_PD26_1</t>
-  </si>
-  <si>
-    <t>HFF_PD26_2</t>
-  </si>
-  <si>
-    <t>HFF_PD26_3</t>
-  </si>
-  <si>
-    <t>HFF_PD46_1</t>
-  </si>
-  <si>
-    <t>HFF_PD46_2</t>
-  </si>
-  <si>
-    <t>HFF_PD46_3</t>
-  </si>
-  <si>
-    <t>HFF_PD64_1</t>
-  </si>
-  <si>
-    <t>HFF_PD64_2</t>
-  </si>
-  <si>
-    <t>HFF_PD64_3</t>
-  </si>
-  <si>
-    <t>MRC_5_PD42_1</t>
-  </si>
-  <si>
-    <t>MRC_5_PD42_2</t>
-  </si>
-  <si>
-    <t>MRC_5_PD42_3</t>
-  </si>
-  <si>
-    <t>MRC_5_PD52_1</t>
-  </si>
-  <si>
-    <t>MRC_5_PD52_2</t>
-  </si>
-  <si>
-    <t>MRC_5_PD52_3</t>
-  </si>
-  <si>
-    <t>MRC_5_PD62_1</t>
-  </si>
-  <si>
-    <t>MRC_5_PD62_2</t>
-  </si>
-  <si>
-    <t>MRC_5_PD62_3</t>
-  </si>
-  <si>
-    <t>HK_G_acc_G</t>
-  </si>
-  <si>
-    <t>HK_G_acc_LT</t>
-  </si>
-  <si>
-    <t>HK_G_acc_LG</t>
-  </si>
-  <si>
-    <t>Var4</t>
-  </si>
-  <si>
-    <t>HK_R_acc_G</t>
-  </si>
-  <si>
-    <t>HK_R_acc_LT</t>
-  </si>
-  <si>
-    <t>HK_R_acc_LG</t>
-  </si>
-  <si>
     <t>HK_R_acc_SD</t>
-  </si>
-  <si>
-    <t>Row</t>
-  </si>
-  <si>
-    <t>BJ_Y1</t>
-  </si>
-  <si>
-    <t>BJ_Y2</t>
-  </si>
-  <si>
-    <t>BJ_Y3</t>
-  </si>
-  <si>
-    <t>BJ_OLD_1</t>
-  </si>
-  <si>
-    <t>BJ_OLD_2</t>
-  </si>
-  <si>
-    <t>BJ_OLD_3</t>
-  </si>
-  <si>
-    <t>IMR90_Y1</t>
-  </si>
-  <si>
-    <t>IMR90_Y2</t>
-  </si>
-  <si>
-    <t>IMR90_Y3</t>
-  </si>
-  <si>
-    <t>IMR90_O1</t>
-  </si>
-  <si>
-    <t>IMR90_O2</t>
-  </si>
-  <si>
-    <t>IMR90_O3</t>
-  </si>
-  <si>
-    <t>WI_38_Y1</t>
-  </si>
-  <si>
-    <t>WI_38_Y2</t>
-  </si>
-  <si>
-    <t>WI_38_Y3</t>
-  </si>
-  <si>
-    <t>WI_38_O1</t>
-  </si>
-  <si>
-    <t>WI_38_O2</t>
-  </si>
-  <si>
-    <t>WI_38_O3</t>
-  </si>
-  <si>
-    <t>HFF_PD16_1</t>
-  </si>
-  <si>
-    <t>HFF_PD16_2</t>
-  </si>
-  <si>
-    <t>HFF_PD16_3</t>
-  </si>
-  <si>
-    <t>HFF_PD74_1</t>
-  </si>
-  <si>
-    <t>HFF_PD74_2</t>
-  </si>
-  <si>
-    <t>HFF_PD74_3</t>
-  </si>
-  <si>
-    <t>MRC_5_PD32_1</t>
-  </si>
-  <si>
-    <t>MRC_5_PD32_2</t>
-  </si>
-  <si>
-    <t>MRC_5_PD32_3</t>
-  </si>
-  <si>
-    <t>MRC_5_PD72_1</t>
-  </si>
-  <si>
-    <t>MRC_5_PD72_2</t>
-  </si>
-  <si>
-    <t>MRC_5_PD72_3</t>
-  </si>
-  <si>
-    <t>HFF_PD26_1</t>
-  </si>
-  <si>
-    <t>HFF_PD26_2</t>
-  </si>
-  <si>
-    <t>HFF_PD26_3</t>
-  </si>
-  <si>
-    <t>HFF_PD46_1</t>
-  </si>
-  <si>
-    <t>HFF_PD46_2</t>
-  </si>
-  <si>
-    <t>HFF_PD46_3</t>
-  </si>
-  <si>
-    <t>HFF_PD64_1</t>
-  </si>
-  <si>
-    <t>HFF_PD64_2</t>
-  </si>
-  <si>
-    <t>HFF_PD64_3</t>
-  </si>
-  <si>
-    <t>MRC_5_PD42_1</t>
-  </si>
-  <si>
-    <t>MRC_5_PD42_2</t>
-  </si>
-  <si>
-    <t>MRC_5_PD42_3</t>
-  </si>
-  <si>
-    <t>MRC_5_PD52_1</t>
-  </si>
-  <si>
-    <t>MRC_5_PD52_2</t>
-  </si>
-  <si>
-    <t>MRC_5_PD52_3</t>
-  </si>
-  <si>
-    <t>MRC_5_PD62_1</t>
-  </si>
-  <si>
-    <t>MRC_5_PD62_2</t>
-  </si>
-  <si>
-    <t>MRC_5_PD62_3</t>
-  </si>
-  <si>
-    <t>HK_G_acc_G</t>
-  </si>
-  <si>
-    <t>HK_G_acc_LT</t>
-  </si>
-  <si>
-    <t>HK_G_acc_LG</t>
-  </si>
-  <si>
-    <t>Var4</t>
-  </si>
-  <si>
-    <t>HK_R_acc_G</t>
-  </si>
-  <si>
-    <t>HK_R_acc_LT</t>
-  </si>
-  <si>
-    <t>HK_R_acc_LG</t>
-  </si>
-  <si>
-    <t>HK_R_acc_SD</t>
-  </si>
-  <si>
-    <t>Row</t>
-  </si>
-  <si>
-    <t>BJ_Y1</t>
-  </si>
-  <si>
-    <t>BJ_Y2</t>
-  </si>
-  <si>
-    <t>BJ_Y3</t>
-  </si>
-  <si>
-    <t>BJ_OLD_1</t>
-  </si>
-  <si>
-    <t>BJ_OLD_2</t>
-  </si>
-  <si>
-    <t>BJ_OLD_3</t>
-  </si>
-  <si>
-    <t>IMR90_Y1</t>
-  </si>
-  <si>
-    <t>IMR90_Y2</t>
-  </si>
-  <si>
-    <t>IMR90_Y3</t>
-  </si>
-  <si>
-    <t>IMR90_O1</t>
-  </si>
-  <si>
-    <t>IMR90_O2</t>
-  </si>
-  <si>
-    <t>IMR90_O3</t>
-  </si>
-  <si>
-    <t>WI_38_Y1</t>
-  </si>
-  <si>
-    <t>WI_38_Y2</t>
-  </si>
-  <si>
-    <t>WI_38_Y3</t>
-  </si>
-  <si>
-    <t>WI_38_O1</t>
-  </si>
-  <si>
-    <t>WI_38_O2</t>
-  </si>
-  <si>
-    <t>WI_38_O3</t>
-  </si>
-  <si>
-    <t>HFF_PD16_1</t>
-  </si>
-  <si>
-    <t>HFF_PD16_2</t>
-  </si>
-  <si>
-    <t>HFF_PD16_3</t>
-  </si>
-  <si>
-    <t>HFF_PD74_1</t>
-  </si>
-  <si>
-    <t>HFF_PD74_2</t>
-  </si>
-  <si>
-    <t>HFF_PD74_3</t>
-  </si>
-  <si>
-    <t>MRC_5_PD32_1</t>
-  </si>
-  <si>
-    <t>MRC_5_PD32_2</t>
-  </si>
-  <si>
-    <t>MRC_5_PD32_3</t>
-  </si>
-  <si>
-    <t>MRC_5_PD72_1</t>
-  </si>
-  <si>
-    <t>MRC_5_PD72_2</t>
-  </si>
-  <si>
-    <t>MRC_5_PD72_3</t>
-  </si>
-  <si>
-    <t>HFF_PD26_1</t>
-  </si>
-  <si>
-    <t>HFF_PD26_2</t>
-  </si>
-  <si>
-    <t>HFF_PD26_3</t>
-  </si>
-  <si>
-    <t>HFF_PD46_1</t>
-  </si>
-  <si>
-    <t>HFF_PD46_2</t>
-  </si>
-  <si>
-    <t>HFF_PD46_3</t>
-  </si>
-  <si>
-    <t>HFF_PD64_1</t>
-  </si>
-  <si>
-    <t>HFF_PD64_2</t>
-  </si>
-  <si>
-    <t>HFF_PD64_3</t>
-  </si>
-  <si>
-    <t>MRC_5_PD42_1</t>
-  </si>
-  <si>
-    <t>MRC_5_PD42_2</t>
-  </si>
-  <si>
-    <t>MRC_5_PD42_3</t>
-  </si>
-  <si>
-    <t>MRC_5_PD52_1</t>
-  </si>
-  <si>
-    <t>MRC_5_PD52_2</t>
-  </si>
-  <si>
-    <t>MRC_5_PD52_3</t>
-  </si>
-  <si>
-    <t>MRC_5_PD62_1</t>
-  </si>
-  <si>
-    <t>MRC_5_PD62_2</t>
-  </si>
-  <si>
-    <t>MRC_5_PD62_3</t>
-  </si>
-  <si>
-    <t>HK_G_acc_G</t>
-  </si>
-  <si>
-    <t>HK_G_acc_LT</t>
-  </si>
-  <si>
-    <t>HK_G_acc_LG</t>
-  </si>
-  <si>
-    <t>Var4</t>
-  </si>
-  <si>
-    <t>HK_R_acc_G</t>
-  </si>
-  <si>
-    <t>HK_R_acc_LT</t>
-  </si>
-  <si>
-    <t>HK_R_acc_LG</t>
-  </si>
-  <si>
-    <t>HK_R_acc_SD</t>
-  </si>
-  <si>
-    <t>Row</t>
-  </si>
-  <si>
-    <t>BJ_Y1</t>
-  </si>
-  <si>
-    <t>BJ_Y2</t>
-  </si>
-  <si>
-    <t>BJ_Y3</t>
-  </si>
-  <si>
-    <t>BJ_OLD_1</t>
-  </si>
-  <si>
-    <t>BJ_OLD_2</t>
-  </si>
-  <si>
-    <t>BJ_OLD_3</t>
-  </si>
-  <si>
-    <t>IMR90_Y1</t>
-  </si>
-  <si>
-    <t>IMR90_Y2</t>
-  </si>
-  <si>
-    <t>IMR90_Y3</t>
-  </si>
-  <si>
-    <t>IMR90_O1</t>
-  </si>
-  <si>
-    <t>IMR90_O2</t>
-  </si>
-  <si>
-    <t>IMR90_O3</t>
-  </si>
-  <si>
-    <t>WI_38_Y1</t>
-  </si>
-  <si>
-    <t>WI_38_Y2</t>
-  </si>
-  <si>
-    <t>WI_38_Y3</t>
-  </si>
-  <si>
-    <t>WI_38_O1</t>
-  </si>
-  <si>
-    <t>WI_38_O2</t>
-  </si>
-  <si>
-    <t>WI_38_O3</t>
-  </si>
-  <si>
-    <t>HFF_PD16_1</t>
-  </si>
-  <si>
-    <t>HFF_PD16_2</t>
-  </si>
-  <si>
-    <t>HFF_PD16_3</t>
-  </si>
-  <si>
-    <t>HFF_PD74_1</t>
-  </si>
-  <si>
-    <t>HFF_PD74_2</t>
-  </si>
-  <si>
-    <t>HFF_PD74_3</t>
-  </si>
-  <si>
-    <t>MRC_5_PD32_1</t>
-  </si>
-  <si>
-    <t>MRC_5_PD32_2</t>
-  </si>
-  <si>
-    <t>MRC_5_PD32_3</t>
-  </si>
-  <si>
-    <t>MRC_5_PD72_1</t>
-  </si>
-  <si>
-    <t>MRC_5_PD72_2</t>
-  </si>
-  <si>
-    <t>MRC_5_PD72_3</t>
-  </si>
-  <si>
-    <t>HFF_PD26_1</t>
-  </si>
-  <si>
-    <t>HFF_PD26_2</t>
-  </si>
-  <si>
-    <t>HFF_PD26_3</t>
-  </si>
-  <si>
-    <t>HFF_PD46_1</t>
-  </si>
-  <si>
-    <t>HFF_PD46_2</t>
-  </si>
-  <si>
-    <t>HFF_PD46_3</t>
-  </si>
-  <si>
-    <t>HFF_PD64_1</t>
-  </si>
-  <si>
-    <t>HFF_PD64_2</t>
-  </si>
-  <si>
-    <t>HFF_PD64_3</t>
-  </si>
-  <si>
-    <t>MRC_5_PD42_1</t>
-  </si>
-  <si>
-    <t>MRC_5_PD42_2</t>
-  </si>
-  <si>
-    <t>MRC_5_PD42_3</t>
-  </si>
-  <si>
-    <t>MRC_5_PD52_1</t>
-  </si>
-  <si>
-    <t>MRC_5_PD52_2</t>
-  </si>
-  <si>
-    <t>MRC_5_PD52_3</t>
-  </si>
-  <si>
-    <t>MRC_5_PD62_1</t>
-  </si>
-  <si>
-    <t>MRC_5_PD62_2</t>
-  </si>
-  <si>
-    <t>MRC_5_PD62_3</t>
-  </si>
-  <si>
-    <t>HK_G_acc_G</t>
-  </si>
-  <si>
-    <t>HK_G_acc_LT</t>
-  </si>
-  <si>
-    <t>HK_G_acc_LG</t>
-  </si>
-  <si>
-    <t>Var4</t>
-  </si>
-  <si>
-    <t>HK_R_acc_G</t>
-  </si>
-  <si>
-    <t>HK_R_acc_LT</t>
-  </si>
-  <si>
-    <t>HK_R_acc_LG</t>
-  </si>
-  <si>
-    <t>HK_R_acc_SD</t>
-  </si>
-  <si>
-    <t>Row</t>
-  </si>
-  <si>
-    <t>BJ_Y1</t>
-  </si>
-  <si>
-    <t>BJ_Y2</t>
-  </si>
-  <si>
-    <t>BJ_Y3</t>
-  </si>
-  <si>
-    <t>BJ_OLD_1</t>
-  </si>
-  <si>
-    <t>BJ_OLD_2</t>
-  </si>
-  <si>
-    <t>BJ_OLD_3</t>
-  </si>
-  <si>
-    <t>IMR90_Y1</t>
-  </si>
-  <si>
-    <t>IMR90_Y2</t>
-  </si>
-  <si>
-    <t>IMR90_Y3</t>
-  </si>
-  <si>
-    <t>IMR90_O1</t>
-  </si>
-  <si>
-    <t>IMR90_O2</t>
-  </si>
-  <si>
-    <t>IMR90_O3</t>
-  </si>
-  <si>
-    <t>WI_38_Y1</t>
-  </si>
-  <si>
-    <t>WI_38_Y2</t>
-  </si>
-  <si>
-    <t>WI_38_Y3</t>
-  </si>
-  <si>
-    <t>WI_38_O1</t>
-  </si>
-  <si>
-    <t>WI_38_O2</t>
-  </si>
-  <si>
-    <t>WI_38_O3</t>
-  </si>
-  <si>
-    <t>HFF_PD16_1</t>
-  </si>
-  <si>
-    <t>HFF_PD16_2</t>
-  </si>
-  <si>
-    <t>HFF_PD16_3</t>
-  </si>
-  <si>
-    <t>HFF_PD74_1</t>
-  </si>
-  <si>
-    <t>HFF_PD74_2</t>
-  </si>
-  <si>
-    <t>HFF_PD74_3</t>
-  </si>
-  <si>
-    <t>MRC_5_PD32_1</t>
-  </si>
-  <si>
-    <t>MRC_5_PD32_2</t>
-  </si>
-  <si>
-    <t>MRC_5_PD32_3</t>
-  </si>
-  <si>
-    <t>MRC_5_PD72_1</t>
-  </si>
-  <si>
-    <t>MRC_5_PD72_2</t>
-  </si>
-  <si>
-    <t>MRC_5_PD72_3</t>
-  </si>
-  <si>
-    <t>HFF_PD26_1</t>
-  </si>
-  <si>
-    <t>HFF_PD26_2</t>
-  </si>
-  <si>
-    <t>HFF_PD26_3</t>
-  </si>
-  <si>
-    <t>HFF_PD46_1</t>
-  </si>
-  <si>
-    <t>HFF_PD46_2</t>
-  </si>
-  <si>
-    <t>HFF_PD46_3</t>
-  </si>
-  <si>
-    <t>HFF_PD64_1</t>
-  </si>
-  <si>
-    <t>HFF_PD64_2</t>
-  </si>
-  <si>
-    <t>HFF_PD64_3</t>
-  </si>
-  <si>
-    <t>MRC_5_PD42_1</t>
-  </si>
-  <si>
-    <t>MRC_5_PD42_2</t>
-  </si>
-  <si>
-    <t>MRC_5_PD42_3</t>
-  </si>
-  <si>
-    <t>MRC_5_PD52_1</t>
-  </si>
-  <si>
-    <t>MRC_5_PD52_2</t>
-  </si>
-  <si>
-    <t>MRC_5_PD52_3</t>
-  </si>
-  <si>
-    <t>MRC_5_PD62_1</t>
-  </si>
-  <si>
-    <t>MRC_5_PD62_2</t>
-  </si>
-  <si>
-    <t>MRC_5_PD62_3</t>
-  </si>
-  <si>
-    <t>HK_G_acc_G</t>
-  </si>
-  <si>
-    <t>HK_G_acc_LT</t>
-  </si>
-  <si>
-    <t>HK_G_acc_LG</t>
-  </si>
-  <si>
-    <t>Var4</t>
-  </si>
-  <si>
-    <t>HK_R_acc_G</t>
-  </si>
-  <si>
-    <t>HK_R_acc_LT</t>
-  </si>
-  <si>
-    <t>HK_R_acc_LG</t>
-  </si>
-  <si>
-    <t>HK_R_acc_SD</t>
-  </si>
-  <si>
-    <t>Var8</t>
-  </si>
-  <si>
-    <t>Row</t>
-  </si>
-  <si>
-    <t>BJ_Y1</t>
-  </si>
-  <si>
-    <t>BJ_Y2</t>
-  </si>
-  <si>
-    <t>BJ_Y3</t>
-  </si>
-  <si>
-    <t>BJ_OLD_1</t>
-  </si>
-  <si>
-    <t>BJ_OLD_2</t>
-  </si>
-  <si>
-    <t>BJ_OLD_3</t>
-  </si>
-  <si>
-    <t>IMR90_Y1</t>
-  </si>
-  <si>
-    <t>IMR90_Y2</t>
-  </si>
-  <si>
-    <t>IMR90_Y3</t>
-  </si>
-  <si>
-    <t>IMR90_O1</t>
-  </si>
-  <si>
-    <t>IMR90_O2</t>
-  </si>
-  <si>
-    <t>IMR90_O3</t>
-  </si>
-  <si>
-    <t>WI_38_Y1</t>
-  </si>
-  <si>
-    <t>WI_38_Y2</t>
-  </si>
-  <si>
-    <t>WI_38_Y3</t>
-  </si>
-  <si>
-    <t>WI_38_O1</t>
-  </si>
-  <si>
-    <t>WI_38_O2</t>
-  </si>
-  <si>
-    <t>WI_38_O3</t>
-  </si>
-  <si>
-    <t>HFF_PD16_1</t>
-  </si>
-  <si>
-    <t>HFF_PD16_2</t>
-  </si>
-  <si>
-    <t>HFF_PD16_3</t>
-  </si>
-  <si>
-    <t>HFF_PD74_1</t>
-  </si>
-  <si>
-    <t>HFF_PD74_2</t>
-  </si>
-  <si>
-    <t>HFF_PD74_3</t>
-  </si>
-  <si>
-    <t>MRC_5_PD32_1</t>
-  </si>
-  <si>
-    <t>MRC_5_PD32_2</t>
-  </si>
-  <si>
-    <t>MRC_5_PD32_3</t>
-  </si>
-  <si>
-    <t>MRC_5_PD72_1</t>
-  </si>
-  <si>
-    <t>MRC_5_PD72_2</t>
-  </si>
-  <si>
-    <t>MRC_5_PD72_3</t>
-  </si>
-  <si>
-    <t>HFF_PD26_1</t>
-  </si>
-  <si>
-    <t>HFF_PD26_2</t>
-  </si>
-  <si>
-    <t>HFF_PD26_3</t>
-  </si>
-  <si>
-    <t>HFF_PD46_1</t>
-  </si>
-  <si>
-    <t>HFF_PD46_2</t>
-  </si>
-  <si>
-    <t>HFF_PD46_3</t>
-  </si>
-  <si>
-    <t>HFF_PD64_1</t>
-  </si>
-  <si>
-    <t>HFF_PD64_2</t>
-  </si>
-  <si>
-    <t>HFF_PD64_3</t>
-  </si>
-  <si>
-    <t>MRC_5_PD42_1</t>
-  </si>
-  <si>
-    <t>MRC_5_PD42_2</t>
-  </si>
-  <si>
-    <t>MRC_5_PD42_3</t>
-  </si>
-  <si>
-    <t>MRC_5_PD52_1</t>
-  </si>
-  <si>
-    <t>MRC_5_PD52_2</t>
-  </si>
-  <si>
-    <t>MRC_5_PD52_3</t>
-  </si>
-  <si>
-    <t>MRC_5_PD62_1</t>
-  </si>
-  <si>
-    <t>MRC_5_PD62_2</t>
-  </si>
-  <si>
-    <t>MRC_5_PD62_3</t>
-  </si>
-  <si>
-    <t>HK_G_acc_G</t>
-  </si>
-  <si>
-    <t>HK_G_acc_LT</t>
-  </si>
-  <si>
-    <t>HK_G_acc_LG</t>
-  </si>
-  <si>
-    <t>Var4</t>
-  </si>
-  <si>
-    <t>HK_R_acc_G</t>
-  </si>
-  <si>
-    <t>HK_R_acc_LT</t>
-  </si>
-  <si>
-    <t>HK_R_acc_LG</t>
-  </si>
-  <si>
-    <t>HK_R_acc_SD</t>
-  </si>
-  <si>
-    <t>Var8</t>
   </si>
 </sst>
 </file>
@@ -1432,56 +229,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:I49"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.34765625" customWidth="true"/>
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
     <col min="3" max="3" width="12.16796875" customWidth="true"/>
     <col min="4" max="4" width="12.44140625" customWidth="true"/>
-    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.53125" customWidth="true"/>
     <col min="6" max="6" width="11.7109375" customWidth="true"/>
     <col min="7" max="7" width="11.984375" customWidth="true"/>
     <col min="8" max="8" width="12.2578125" customWidth="true"/>
     <col min="9" max="9" width="12.34765625" customWidth="true"/>
-    <col min="10" max="10" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>449</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>450</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>451</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>452</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>453</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>454</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>455</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>456</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>457</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>401</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0">
         <v>52.548330404217921</v>
@@ -1505,15 +298,12 @@
         <v>97.474523704031895</v>
       </c>
       <c r="I2" s="0">
-        <v>0</v>
-      </c>
-      <c r="J2" s="0">
         <v>89.601769911504419</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>402</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0">
         <v>52.3725834797891</v>
@@ -1537,15 +327,12 @@
         <v>99.025254762959676</v>
       </c>
       <c r="I3" s="0">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0">
         <v>89.026548672566378</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>403</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0">
         <v>52.3725834797891</v>
@@ -1569,15 +356,12 @@
         <v>97.563136907399212</v>
       </c>
       <c r="I4" s="0">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0">
         <v>90</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>404</v>
+        <v>4</v>
       </c>
       <c r="B5" s="0">
         <v>51.845342706502642</v>
@@ -1601,15 +385,12 @@
         <v>99.379707576428885</v>
       </c>
       <c r="I5" s="0">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0">
         <v>88.451327433628322</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>405</v>
+        <v>5</v>
       </c>
       <c r="B6" s="0">
         <v>51.318101933216163</v>
@@ -1633,15 +414,12 @@
         <v>99.202481169694295</v>
       </c>
       <c r="I6" s="0">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0">
         <v>88.849557522123888</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>406</v>
+        <v>6</v>
       </c>
       <c r="B7" s="0">
         <v>51.66959578207382</v>
@@ -1665,15 +443,12 @@
         <v>99.379707576428885</v>
       </c>
       <c r="I7" s="0">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0">
         <v>88.274336283185846</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>407</v>
+        <v>7</v>
       </c>
       <c r="B8" s="0">
         <v>53.954305799648509</v>
@@ -1697,15 +472,12 @@
         <v>98.404962339388575</v>
       </c>
       <c r="I8" s="0">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0">
         <v>82.743362831858406</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>408</v>
+        <v>8</v>
       </c>
       <c r="B9" s="0">
         <v>53.251318101933222</v>
@@ -1729,15 +501,12 @@
         <v>97.252990695613647</v>
       </c>
       <c r="I9" s="0">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0">
         <v>83.318584070796462</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>409</v>
+        <v>9</v>
       </c>
       <c r="B10" s="0">
         <v>53.251318101933222</v>
@@ -1761,15 +530,12 @@
         <v>97.6517501107665</v>
       </c>
       <c r="I10" s="0">
-        <v>0</v>
-      </c>
-      <c r="J10" s="0">
         <v>81.769911504424769</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>410</v>
+        <v>10</v>
       </c>
       <c r="B11" s="0">
         <v>53.427065026362044</v>
@@ -1793,15 +559,12 @@
         <v>97.91758972086842</v>
       </c>
       <c r="I11" s="0">
-        <v>0</v>
-      </c>
-      <c r="J11" s="0">
         <v>82.30088495575221</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>411</v>
+        <v>11</v>
       </c>
       <c r="B12" s="0">
         <v>53.075571177504386</v>
@@ -1825,15 +588,12 @@
         <v>97.164377492246345</v>
       </c>
       <c r="I12" s="0">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0">
         <v>80.04424778761063</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>412</v>
+        <v>12</v>
       </c>
       <c r="B13" s="0">
         <v>52.899824253075565</v>
@@ -1857,15 +617,12 @@
         <v>97.563136907399212</v>
       </c>
       <c r="I13" s="0">
-        <v>0</v>
-      </c>
-      <c r="J13" s="0">
         <v>81.946902654867259</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>413</v>
+        <v>13</v>
       </c>
       <c r="B14" s="0">
         <v>54.305799648506145</v>
@@ -1889,15 +646,12 @@
         <v>99.113867966326978</v>
       </c>
       <c r="I14" s="0">
-        <v>0</v>
-      </c>
-      <c r="J14" s="0">
         <v>82.079646017699119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>414</v>
+        <v>14</v>
       </c>
       <c r="B15" s="0">
         <v>54.481546572934967</v>
@@ -1921,15 +675,12 @@
         <v>97.341603898980949</v>
       </c>
       <c r="I15" s="0">
-        <v>0</v>
-      </c>
-      <c r="J15" s="0">
         <v>81.106194690265482</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>415</v>
+        <v>15</v>
       </c>
       <c r="B16" s="0">
         <v>54.305799648506145</v>
@@ -1953,15 +704,12 @@
         <v>99.113867966326978</v>
       </c>
       <c r="I16" s="0">
-        <v>0</v>
-      </c>
-      <c r="J16" s="0">
         <v>81.504424778761063</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>416</v>
+        <v>16</v>
       </c>
       <c r="B17" s="0">
         <v>52.724077328646743</v>
@@ -1985,15 +733,12 @@
         <v>98.89233495790873</v>
       </c>
       <c r="I17" s="0">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0">
         <v>91.637168141592923</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>417</v>
+        <v>17</v>
       </c>
       <c r="B18" s="0">
         <v>53.075571177504386</v>
@@ -2017,15 +762,12 @@
         <v>99.335400974745241</v>
       </c>
       <c r="I18" s="0">
-        <v>0</v>
-      </c>
-      <c r="J18" s="0">
         <v>92.16814159292035</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>418</v>
+        <v>18</v>
       </c>
       <c r="B19" s="0">
         <v>52.548330404217921</v>
@@ -2049,15 +791,12 @@
         <v>98.89233495790873</v>
       </c>
       <c r="I19" s="0">
-        <v>0</v>
-      </c>
-      <c r="J19" s="0">
         <v>94.646017699115049</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>419</v>
+        <v>19</v>
       </c>
       <c r="B20" s="0">
         <v>53.251318101933222</v>
@@ -2081,15 +820,12 @@
         <v>99.202481169694295</v>
       </c>
       <c r="I20" s="0">
-        <v>0</v>
-      </c>
-      <c r="J20" s="0">
         <v>88.495575221238937</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>420</v>
+        <v>20</v>
       </c>
       <c r="B21" s="0">
         <v>53.075571177504386</v>
@@ -2113,15 +849,12 @@
         <v>99.246787771377925</v>
       </c>
       <c r="I21" s="0">
-        <v>0</v>
-      </c>
-      <c r="J21" s="0">
         <v>88.495575221238937</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>421</v>
+        <v>21</v>
       </c>
       <c r="B22" s="0">
         <v>53.427065026362044</v>
@@ -2145,15 +878,12 @@
         <v>99.202481169694295</v>
       </c>
       <c r="I22" s="0">
-        <v>0</v>
-      </c>
-      <c r="J22" s="0">
         <v>89.159292035398224</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>422</v>
+        <v>22</v>
       </c>
       <c r="B23" s="0">
         <v>51.142355008787341</v>
@@ -2177,15 +907,12 @@
         <v>97.91758972086842</v>
       </c>
       <c r="I23" s="0">
-        <v>0</v>
-      </c>
-      <c r="J23" s="0">
         <v>87.787610619469021</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>423</v>
+        <v>23</v>
       </c>
       <c r="B24" s="0">
         <v>50.087873462214418</v>
@@ -2209,15 +936,12 @@
         <v>98.582188746123165</v>
       </c>
       <c r="I24" s="0">
-        <v>0</v>
-      </c>
-      <c r="J24" s="0">
         <v>87.920353982300881</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>424</v>
+        <v>24</v>
       </c>
       <c r="B25" s="0">
         <v>51.142355008787341</v>
@@ -2241,15 +965,12 @@
         <v>98.626495347806824</v>
       </c>
       <c r="I25" s="0">
-        <v>0</v>
-      </c>
-      <c r="J25" s="0">
         <v>88.185840707964601</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>425</v>
+        <v>25</v>
       </c>
       <c r="B26" s="0">
         <v>52.899824253075565</v>
@@ -2273,15 +994,12 @@
         <v>98.404962339388575</v>
       </c>
       <c r="I26" s="0">
-        <v>0</v>
-      </c>
-      <c r="J26" s="0">
         <v>85.088495575221231</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>426</v>
+        <v>26</v>
       </c>
       <c r="B27" s="0">
         <v>52.724077328646743</v>
@@ -2305,15 +1023,12 @@
         <v>99.424014178112543</v>
       </c>
       <c r="I27" s="0">
-        <v>0</v>
-      </c>
-      <c r="J27" s="0">
         <v>83.141592920353986</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>427</v>
+        <v>27</v>
       </c>
       <c r="B28" s="0">
         <v>53.602811950790866</v>
@@ -2337,15 +1052,12 @@
         <v>99.512627381479845</v>
       </c>
       <c r="I28" s="0">
-        <v>0</v>
-      </c>
-      <c r="J28" s="0">
         <v>85.575221238938042</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>428</v>
+        <v>28</v>
       </c>
       <c r="B29" s="0">
         <v>54.657293497363803</v>
@@ -2369,15 +1081,12 @@
         <v>98.670801949490468</v>
       </c>
       <c r="I29" s="0">
-        <v>0</v>
-      </c>
-      <c r="J29" s="0">
         <v>84.778761061946909</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>429</v>
+        <v>29</v>
       </c>
       <c r="B30" s="0">
         <v>53.954305799648509</v>
@@ -2401,15 +1110,12 @@
         <v>99.069561364643334</v>
       </c>
       <c r="I30" s="0">
-        <v>0</v>
-      </c>
-      <c r="J30" s="0">
         <v>80</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>430</v>
+        <v>30</v>
       </c>
       <c r="B31" s="0">
         <v>54.657293497363803</v>
@@ -2433,15 +1139,12 @@
         <v>99.246787771377925</v>
       </c>
       <c r="I31" s="0">
-        <v>0</v>
-      </c>
-      <c r="J31" s="0">
         <v>92.30088495575221</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>431</v>
+        <v>31</v>
       </c>
       <c r="B32" s="0">
         <v>50.615114235500883</v>
@@ -2465,15 +1168,12 @@
         <v>99.291094373061583</v>
       </c>
       <c r="I32" s="0">
-        <v>0</v>
-      </c>
-      <c r="J32" s="0">
         <v>89.911504424778769</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>432</v>
+        <v>32</v>
       </c>
       <c r="B33" s="0">
         <v>51.66959578207382</v>
@@ -2497,15 +1197,12 @@
         <v>99.202481169694295</v>
       </c>
       <c r="I33" s="0">
-        <v>0</v>
-      </c>
-      <c r="J33" s="0">
         <v>88.495575221238937</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>433</v>
+        <v>33</v>
       </c>
       <c r="B34" s="0">
         <v>51.845342706502642</v>
@@ -2529,15 +1226,12 @@
         <v>99.468320779796187</v>
       </c>
       <c r="I34" s="0">
-        <v>0</v>
-      </c>
-      <c r="J34" s="0">
         <v>89.601769911504419</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>434</v>
+        <v>34</v>
       </c>
       <c r="B35" s="0">
         <v>52.196836555360285</v>
@@ -2561,15 +1255,12 @@
         <v>98.715108551174126</v>
       </c>
       <c r="I35" s="0">
-        <v>0</v>
-      </c>
-      <c r="J35" s="0">
         <v>91.327433628318587</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>435</v>
+        <v>35</v>
       </c>
       <c r="B36" s="0">
         <v>51.66959578207382</v>
@@ -2593,15 +1284,12 @@
         <v>98.582188746123165</v>
       </c>
       <c r="I36" s="0">
-        <v>0</v>
-      </c>
-      <c r="J36" s="0">
         <v>89.380530973451329</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>436</v>
+        <v>36</v>
       </c>
       <c r="B37" s="0">
         <v>56.063268892794369</v>
@@ -2625,15 +1313,12 @@
         <v>98.050509525919367</v>
       </c>
       <c r="I37" s="0">
-        <v>0</v>
-      </c>
-      <c r="J37" s="0">
         <v>90.530973451327441</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>437</v>
+        <v>37</v>
       </c>
       <c r="B38" s="0">
         <v>51.142355008787341</v>
@@ -2657,15 +1342,12 @@
         <v>98.89233495790873</v>
       </c>
       <c r="I38" s="0">
-        <v>0</v>
-      </c>
-      <c r="J38" s="0">
         <v>86.061946902654867</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>438</v>
+        <v>38</v>
       </c>
       <c r="B39" s="0">
         <v>51.845342706502642</v>
@@ -2689,15 +1371,12 @@
         <v>98.493575542755877</v>
       </c>
       <c r="I39" s="0">
-        <v>0</v>
-      </c>
-      <c r="J39" s="0">
         <v>87.964601769911496</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>439</v>
+        <v>39</v>
       </c>
       <c r="B40" s="0">
         <v>51.318101933216163</v>
@@ -2721,15 +1400,12 @@
         <v>98.936641559592374</v>
       </c>
       <c r="I40" s="0">
-        <v>0</v>
-      </c>
-      <c r="J40" s="0">
         <v>86.371681415929203</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>440</v>
+        <v>40</v>
       </c>
       <c r="B41" s="0">
         <v>52.899824253075565</v>
@@ -2753,15 +1429,12 @@
         <v>99.158174568010637</v>
       </c>
       <c r="I41" s="0">
-        <v>0</v>
-      </c>
-      <c r="J41" s="0">
         <v>83.230088495575217</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>441</v>
+        <v>41</v>
       </c>
       <c r="B42" s="0">
         <v>53.427065026362044</v>
@@ -2785,15 +1458,12 @@
         <v>99.424014178112543</v>
       </c>
       <c r="I42" s="0">
-        <v>0</v>
-      </c>
-      <c r="J42" s="0">
         <v>84.292035398230098</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>442</v>
+        <v>42</v>
       </c>
       <c r="B43" s="0">
         <v>53.954305799648509</v>
@@ -2817,15 +1487,12 @@
         <v>99.379707576428885</v>
       </c>
       <c r="I43" s="0">
-        <v>0</v>
-      </c>
-      <c r="J43" s="0">
         <v>85</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>443</v>
+        <v>43</v>
       </c>
       <c r="B44" s="0">
         <v>53.427065026362044</v>
@@ -2849,15 +1516,12 @@
         <v>99.113867966326978</v>
       </c>
       <c r="I44" s="0">
-        <v>0</v>
-      </c>
-      <c r="J44" s="0">
         <v>82.079646017699119</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>444</v>
+        <v>44</v>
       </c>
       <c r="B45" s="0">
         <v>52.3725834797891</v>
@@ -2881,15 +1545,12 @@
         <v>98.980948161276032</v>
       </c>
       <c r="I45" s="0">
-        <v>0</v>
-      </c>
-      <c r="J45" s="0">
         <v>88.893805309734503</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>445</v>
+        <v>45</v>
       </c>
       <c r="B46" s="0">
         <v>52.548330404217921</v>
@@ -2913,15 +1574,12 @@
         <v>99.069561364643334</v>
       </c>
       <c r="I46" s="0">
-        <v>0</v>
-      </c>
-      <c r="J46" s="0">
         <v>85.707964601769916</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>446</v>
+        <v>46</v>
       </c>
       <c r="B47" s="0">
         <v>51.845342706502642</v>
@@ -2945,15 +1603,12 @@
         <v>98.360655737704917</v>
       </c>
       <c r="I47" s="0">
-        <v>0</v>
-      </c>
-      <c r="J47" s="0">
         <v>90</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>447</v>
+        <v>47</v>
       </c>
       <c r="B48" s="0">
         <v>54.481546572934967</v>
@@ -2977,15 +1632,12 @@
         <v>97.696056712450158</v>
       </c>
       <c r="I48" s="0">
-        <v>0</v>
-      </c>
-      <c r="J48" s="0">
         <v>82.964601769911511</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>448</v>
+        <v>48</v>
       </c>
       <c r="B49" s="0">
         <v>53.251318101933222</v>
@@ -3009,9 +1661,6 @@
         <v>99.424014178112543</v>
       </c>
       <c r="I49" s="0">
-        <v>0</v>
-      </c>
-      <c r="J49" s="0">
         <v>90.265486725663706</v>
       </c>
     </row>
